--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -1914,7 +1914,7 @@
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>133.58</v>
-      </c>
-      <c r="C2" s="2">
-        <v>40401626190</v>
+        <v>131.28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>39662544101</v>
       </c>
       <c r="D2" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>17.39</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10585759718</v>
+        <v>18.41</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11187147934</v>
       </c>
       <c r="D3" s="3">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,10 +1965,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>157.71</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10545447631</v>
+        <v>158.02</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10739955480</v>
       </c>
       <c r="D4" s="3">
         <v>12</v>
@@ -1979,10 +1979,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>138.36</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2373705920445</v>
+        <v>139.68</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2255098614438</v>
       </c>
       <c r="D5" s="3">
         <v>14</v>
@@ -1993,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>107.19</v>
-      </c>
-      <c r="C6" s="2">
-        <v>190472944821</v>
+        <v>106</v>
+      </c>
+      <c r="C6" s="3">
+        <v>191268714096</v>
       </c>
       <c r="D6" s="3">
         <v>18</v>
@@ -2007,10 +2007,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>105.56</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21633930242</v>
+        <v>107.18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22182912363</v>
       </c>
       <c r="D7" s="3">
         <v>18</v>
@@ -2021,10 +2021,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>331.03</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15522073148</v>
+        <v>332.11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15283269835</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -2035,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>129.87</v>
-      </c>
-      <c r="C9" s="2">
-        <v>230159871197</v>
+        <v>133.31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>231782720291</v>
       </c>
       <c r="D9" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,10 +2049,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>261.81</v>
-      </c>
-      <c r="C10" s="2">
-        <v>172072386069</v>
+        <v>262.28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>177863727441</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
@@ -2063,10 +2063,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>513.49</v>
-      </c>
-      <c r="C11" s="2">
-        <v>245243245380</v>
+        <v>510.48</v>
+      </c>
+      <c r="C11" s="3">
+        <v>248690427084</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -2077,10 +2077,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>164.21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>59717463036</v>
+        <v>162.97</v>
+      </c>
+      <c r="C12" s="3">
+        <v>62005004810</v>
       </c>
       <c r="D12" s="3">
         <v>12</v>
@@ -2091,10 +2091,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>56.99</v>
-      </c>
-      <c r="C13" s="2">
-        <v>32423598834</v>
+        <v>57.59</v>
+      </c>
+      <c r="C13" s="3">
+        <v>32335414201</v>
       </c>
       <c r="D13" s="3">
         <v>34</v>
@@ -2105,10 +2105,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>168.04</v>
-      </c>
-      <c r="C14" s="2">
-        <v>74366030403</v>
+        <v>166.65</v>
+      </c>
+      <c r="C14" s="3">
+        <v>71473007561</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
@@ -2119,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>307.17</v>
-      </c>
-      <c r="C15" s="2">
-        <v>67829838459</v>
+        <v>317.38</v>
+      </c>
+      <c r="C15" s="3">
+        <v>70217749810</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2133,10 +2133,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>74.56</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18318260578</v>
+        <v>74.59</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18016440824</v>
       </c>
       <c r="D16" s="3">
         <v>26</v>
@@ -2147,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>79.14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>40416855638</v>
+        <v>81.27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>39951723491</v>
       </c>
       <c r="D17" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>29.56</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19294865920</v>
+        <v>28.93</v>
+      </c>
+      <c r="C18" s="3">
+        <v>19417711542</v>
       </c>
       <c r="D18" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>47.44</v>
-      </c>
-      <c r="C19" s="2">
-        <v>33641883171</v>
+        <v>47.04</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32966313700</v>
       </c>
       <c r="D19" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>42.1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>36837673142</v>
+        <v>43.21</v>
+      </c>
+      <c r="C20" s="3">
+        <v>37238834258</v>
       </c>
       <c r="D20" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="C21" s="2">
-        <v>782410627</v>
+        <v>5.11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>785332663</v>
       </c>
       <c r="D21" s="3">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,10 +2217,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>128.7</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7776590523</v>
+        <v>129.32</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7745038335</v>
       </c>
       <c r="D22" s="3">
         <v>15</v>
@@ -2231,10 +2231,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>116.72</v>
-      </c>
-      <c r="C23" s="2">
-        <v>23189224658</v>
+        <v>120.01</v>
+      </c>
+      <c r="C23" s="3">
+        <v>23696718193</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>104.61</v>
-      </c>
-      <c r="C24" s="2">
-        <v>17165876421</v>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16274920628</v>
       </c>
       <c r="D24" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,10 +2259,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>167.76</v>
-      </c>
-      <c r="C25" s="2">
-        <v>19482164381</v>
+        <v>170.2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>19581448327</v>
       </c>
       <c r="D25" s="3">
         <v>11</v>
@@ -2273,10 +2273,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>637.63</v>
-      </c>
-      <c r="C26" s="2">
-        <v>48668533907</v>
+        <v>620.38</v>
+      </c>
+      <c r="C26" s="3">
+        <v>49479928997</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>58.18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7211910137</v>
+        <v>60.56</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7532595885</v>
       </c>
       <c r="D27" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>108.2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>32286042566</v>
+        <v>107.05</v>
+      </c>
+      <c r="C28" s="3">
+        <v>32813714548</v>
       </c>
       <c r="D28" s="3">
         <v>18</v>
@@ -2315,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>121.84</v>
-      </c>
-      <c r="C29" s="2">
-        <v>10923075813</v>
+        <v>113.57</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10153619905</v>
       </c>
       <c r="D29" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>164.62</v>
-      </c>
-      <c r="C30" s="2">
-        <v>36071514349</v>
+        <v>164.29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>35645501708</v>
       </c>
       <c r="D30" s="3">
         <v>12</v>
@@ -2343,10 +2343,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>122</v>
-      </c>
-      <c r="C31" s="2">
-        <v>112224859209</v>
+        <v>119.61</v>
+      </c>
+      <c r="C31" s="3">
+        <v>111337704606</v>
       </c>
       <c r="D31" s="3">
         <v>16</v>
@@ -2357,13 +2357,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="C32" s="2">
-        <v>18737197287</v>
+        <v>11.38</v>
+      </c>
+      <c r="C32" s="3">
+        <v>17927235168</v>
       </c>
       <c r="D32" s="3">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,10 +2371,10 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>95.09</v>
-      </c>
-      <c r="C33" s="2">
-        <v>116941352192</v>
+        <v>94.56</v>
+      </c>
+      <c r="C33" s="3">
+        <v>114313908495</v>
       </c>
       <c r="D33" s="3">
         <v>20</v>
@@ -2385,13 +2385,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>122</v>
-      </c>
-      <c r="C34" s="2">
-        <v>28594964901</v>
+        <v>125.61</v>
+      </c>
+      <c r="C34" s="3">
+        <v>29053486263</v>
       </c>
       <c r="D34" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>245.85</v>
-      </c>
-      <c r="C35" s="2">
-        <v>142988988143</v>
+        <v>238.47</v>
+      </c>
+      <c r="C35" s="3">
+        <v>138404622729</v>
       </c>
       <c r="D35" s="3">
         <v>8</v>
@@ -2413,13 +2413,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>219.23</v>
-      </c>
-      <c r="C36" s="2">
-        <v>25872961389</v>
+        <v>230.9</v>
+      </c>
+      <c r="C36" s="3">
+        <v>27159737505</v>
       </c>
       <c r="D36" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>230.43</v>
-      </c>
-      <c r="C37" s="2">
-        <v>101327342909</v>
+        <v>232.37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>102627097393</v>
       </c>
       <c r="D37" s="3">
         <v>8</v>
@@ -2441,10 +2441,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3366.31</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1729332885053</v>
+        <v>3388.35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1655766268296</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>339.27</v>
-      </c>
-      <c r="C39" s="2">
-        <v>24994992370</v>
+        <v>319.2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>25048546271</v>
       </c>
       <c r="D39" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>410</v>
-      </c>
-      <c r="C40" s="2">
-        <v>34906851022</v>
+        <v>406.35</v>
+      </c>
+      <c r="C40" s="3">
+        <v>35308929748</v>
       </c>
       <c r="D40" s="3">
         <v>4</v>
@@ -2483,10 +2483,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>295.37</v>
-      </c>
-      <c r="C41" s="2">
-        <v>74498314912</v>
+        <v>290.24</v>
+      </c>
+      <c r="C41" s="3">
+        <v>73339797191</v>
       </c>
       <c r="D41" s="3">
         <v>6</v>
@@ -2497,10 +2497,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>229.2</v>
-      </c>
-      <c r="C42" s="2">
-        <v>52282439712</v>
+        <v>237</v>
+      </c>
+      <c r="C42" s="3">
+        <v>54058820058</v>
       </c>
       <c r="D42" s="3">
         <v>8</v>
@@ -2511,10 +2511,10 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>60.81</v>
-      </c>
-      <c r="C43" s="2">
-        <v>10209576607</v>
+        <v>61.27</v>
+      </c>
+      <c r="C43" s="3">
+        <v>9842103605</v>
       </c>
       <c r="D43" s="3">
         <v>32</v>
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>17.57</v>
-      </c>
-      <c r="C44" s="2">
-        <v>6811342637</v>
+        <v>18.7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>7112703843</v>
       </c>
       <c r="D44" s="3">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,10 +2539,10 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>270.62</v>
-      </c>
-      <c r="C45" s="2">
-        <v>58716086287</v>
+        <v>263.19</v>
+      </c>
+      <c r="C45" s="3">
+        <v>58985312743</v>
       </c>
       <c r="D45" s="3">
         <v>7</v>
@@ -2553,10 +2553,10 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>138.5</v>
-      </c>
-      <c r="C46" s="2">
-        <v>41224774842</v>
+        <v>140.88</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42337838258</v>
       </c>
       <c r="D46" s="3">
         <v>14</v>
@@ -2567,10 +2567,10 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>160.54</v>
-      </c>
-      <c r="C47" s="2">
-        <v>43402406965</v>
+        <v>160.04</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43078521105</v>
       </c>
       <c r="D47" s="3">
         <v>12</v>
@@ -2581,10 +2581,10 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>179.14</v>
-      </c>
-      <c r="C48" s="2">
-        <v>24828585596</v>
+        <v>173</v>
+      </c>
+      <c r="C48" s="3">
+        <v>23931743811</v>
       </c>
       <c r="D48" s="3">
         <v>11</v>
@@ -2595,10 +2595,10 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="C49" s="2">
-        <v>11748862310</v>
+        <v>94.81999999999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>12105401971</v>
       </c>
       <c r="D49" s="3">
         <v>20</v>
@@ -2609,10 +2609,10 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>82983976824</v>
+        <v>107.8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>81343058862</v>
       </c>
       <c r="D50" s="3">
         <v>18</v>
@@ -2623,10 +2623,10 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>181.22</v>
-      </c>
-      <c r="C51" s="2">
-        <v>25332797411</v>
+        <v>184.96</v>
+      </c>
+      <c r="C51" s="3">
+        <v>25568337157</v>
       </c>
       <c r="D51" s="3">
         <v>10</v>
@@ -2637,10 +2637,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>497.74</v>
-      </c>
-      <c r="C52" s="2">
-        <v>202951152929</v>
+        <v>495.24</v>
+      </c>
+      <c r="C52" s="3">
+        <v>202603579694</v>
       </c>
       <c r="D52" s="3">
         <v>3</v>
@@ -2651,10 +2651,10 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>182.34</v>
-      </c>
-      <c r="C53" s="2">
-        <v>15246168826</v>
+        <v>183.51</v>
+      </c>
+      <c r="C53" s="3">
+        <v>15090467953</v>
       </c>
       <c r="D53" s="3">
         <v>10</v>
@@ -2665,10 +2665,10 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>168.48</v>
-      </c>
-      <c r="C54" s="2">
-        <v>30725737858</v>
+        <v>167.55</v>
+      </c>
+      <c r="C54" s="3">
+        <v>30595609892</v>
       </c>
       <c r="D54" s="3">
         <v>11</v>
@@ -2679,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>131.77</v>
-      </c>
-      <c r="C55" s="2">
-        <v>106608695503</v>
+        <v>134.72</v>
+      </c>
+      <c r="C55" s="3">
+        <v>109497385876</v>
       </c>
       <c r="D55" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1183.08</v>
-      </c>
-      <c r="C56" s="2">
-        <v>27183143459</v>
+        <v>1188.29</v>
+      </c>
+      <c r="C56" s="3">
+        <v>27202986643</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -2707,10 +2707,10 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>218.12</v>
-      </c>
-      <c r="C57" s="2">
-        <v>127956361144</v>
+        <v>217.48</v>
+      </c>
+      <c r="C57" s="3">
+        <v>130097933873</v>
       </c>
       <c r="D57" s="3">
         <v>9</v>
@@ -2721,13 +2721,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>33.64</v>
-      </c>
-      <c r="C58" s="2">
-        <v>300385201625</v>
+        <v>34.32</v>
+      </c>
+      <c r="C58" s="3">
+        <v>299302784056</v>
       </c>
       <c r="D58" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>79.14</v>
-      </c>
-      <c r="C59" s="2">
-        <v>41632272925</v>
+        <v>79.3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>40311419450</v>
       </c>
       <c r="D59" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>123.97</v>
-      </c>
-      <c r="C60" s="2">
-        <v>31787866641</v>
+        <v>123.53</v>
+      </c>
+      <c r="C60" s="3">
+        <v>31618961138</v>
       </c>
       <c r="D60" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>258.81</v>
-      </c>
-      <c r="C61" s="2">
-        <v>77634119484</v>
+        <v>264.97</v>
+      </c>
+      <c r="C61" s="3">
+        <v>77633882462</v>
       </c>
       <c r="D61" s="3">
         <v>7</v>
@@ -2777,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>28.33</v>
-      </c>
-      <c r="C62" s="2">
-        <v>14508718670</v>
+        <v>28.16</v>
+      </c>
+      <c r="C62" s="3">
+        <v>14655618185</v>
       </c>
       <c r="D62" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>79.20999999999999</v>
-      </c>
-      <c r="C63" s="2">
-        <v>36754445251</v>
+        <v>78.87</v>
+      </c>
+      <c r="C63" s="3">
+        <v>35664656082</v>
       </c>
       <c r="D63" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>288.65</v>
-      </c>
-      <c r="C64" s="2">
-        <v>43089600353</v>
+        <v>289.08</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43839386939</v>
       </c>
       <c r="D64" s="3">
         <v>6</v>
@@ -2819,13 +2819,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>694</v>
-      </c>
-      <c r="C65" s="2">
-        <v>20111536089</v>
+        <v>651.47</v>
+      </c>
+      <c r="C65" s="3">
+        <v>20079704034</v>
       </c>
       <c r="D65" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>43.18</v>
-      </c>
-      <c r="C66" s="2">
-        <v>37450257858</v>
+        <v>43.14</v>
+      </c>
+      <c r="C66" s="3">
+        <v>38961404375</v>
       </c>
       <c r="D66" s="3">
         <v>45</v>
@@ -2847,10 +2847,10 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2217.96</v>
-      </c>
-      <c r="C67" s="2">
-        <v>89419264510</v>
+        <v>2263.45</v>
+      </c>
+      <c r="C67" s="3">
+        <v>90116272767</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -2861,13 +2861,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>23</v>
-      </c>
-      <c r="C68" s="2">
-        <v>24598852650</v>
+        <v>23.69</v>
+      </c>
+      <c r="C68" s="3">
+        <v>24512832315</v>
       </c>
       <c r="D68" s="3">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,10 +2875,10 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>724</v>
-      </c>
-      <c r="C69" s="2">
-        <v>112596119109</v>
+        <v>743.04</v>
+      </c>
+      <c r="C69" s="3">
+        <v>116176613794</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
@@ -2889,10 +2889,10 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>92.73999999999999</v>
-      </c>
-      <c r="C70" s="2">
-        <v>29904063439</v>
+        <v>94.01000000000001</v>
+      </c>
+      <c r="C70" s="3">
+        <v>30069827831</v>
       </c>
       <c r="D70" s="3">
         <v>21</v>
@@ -2903,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>61.3</v>
-      </c>
-      <c r="C71" s="2">
-        <v>140848167987</v>
+        <v>59.7</v>
+      </c>
+      <c r="C71" s="3">
+        <v>136502596883</v>
       </c>
       <c r="D71" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,10 +2917,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>149.58</v>
-      </c>
-      <c r="C72" s="2">
-        <v>17325596881</v>
+        <v>149.45</v>
+      </c>
+      <c r="C72" s="3">
+        <v>17138398473</v>
       </c>
       <c r="D72" s="3">
         <v>13</v>
@@ -2931,10 +2931,10 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>250.78</v>
-      </c>
-      <c r="C73" s="2">
-        <v>574146131045</v>
+        <v>249.23</v>
+      </c>
+      <c r="C73" s="3">
+        <v>597963807633</v>
       </c>
       <c r="D73" s="3">
         <v>7</v>
@@ -2945,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>39.64</v>
-      </c>
-      <c r="C74" s="2">
-        <v>57585819240</v>
+        <v>38.84</v>
+      </c>
+      <c r="C74" s="3">
+        <v>54772913658</v>
       </c>
       <c r="D74" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>43.92</v>
-      </c>
-      <c r="C75" s="2">
-        <v>10767295374</v>
+        <v>45.86</v>
+      </c>
+      <c r="C75" s="3">
+        <v>11145460754</v>
       </c>
       <c r="D75" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,10 +2973,10 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="C76" s="2">
-        <v>14933248409</v>
+        <v>96.19</v>
+      </c>
+      <c r="C76" s="3">
+        <v>14678758250</v>
       </c>
       <c r="D76" s="3">
         <v>20</v>
@@ -2987,13 +2987,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>65.62</v>
-      </c>
-      <c r="C77" s="2">
-        <v>136401279945</v>
+        <v>66.8</v>
+      </c>
+      <c r="C77" s="3">
+        <v>137993576960</v>
       </c>
       <c r="D77" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>36.19</v>
-      </c>
-      <c r="C78" s="2">
-        <v>16944855324</v>
+        <v>34.1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>17273300998</v>
       </c>
       <c r="D78" s="3">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3015,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>53.57</v>
-      </c>
-      <c r="C79" s="2">
-        <v>15607176524</v>
+        <v>52.05</v>
+      </c>
+      <c r="C79" s="3">
+        <v>15408858058</v>
       </c>
       <c r="D79" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3029,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>38.51</v>
-      </c>
-      <c r="C80" s="2">
-        <v>33203884883</v>
+        <v>37.88</v>
+      </c>
+      <c r="C80" s="3">
+        <v>33628858774</v>
       </c>
       <c r="D80" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>202.81</v>
-      </c>
-      <c r="C81" s="2">
-        <v>110373320136</v>
+        <v>202.46</v>
+      </c>
+      <c r="C81" s="3">
+        <v>111895581809</v>
       </c>
       <c r="D81" s="3">
         <v>9</v>
@@ -3057,10 +3057,10 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>165.29</v>
-      </c>
-      <c r="C82" s="2">
-        <v>77234954784</v>
+        <v>171.18</v>
+      </c>
+      <c r="C82" s="3">
+        <v>74969362772</v>
       </c>
       <c r="D82" s="3">
         <v>11</v>
@@ -3071,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>91.15000000000001</v>
-      </c>
-      <c r="C83" s="2">
-        <v>10033936705</v>
+        <v>100.65</v>
+      </c>
+      <c r="C83" s="3">
+        <v>10729667744</v>
       </c>
       <c r="D83" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,10 +3085,10 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="C84" s="2">
-        <v>24854710698</v>
+        <v>72.16</v>
+      </c>
+      <c r="C84" s="3">
+        <v>24048439667</v>
       </c>
       <c r="D84" s="3">
         <v>27</v>
@@ -3099,13 +3099,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>171.44</v>
-      </c>
-      <c r="C85" s="2">
-        <v>72215041690</v>
+        <v>164.87</v>
+      </c>
+      <c r="C85" s="3">
+        <v>69883225169</v>
       </c>
       <c r="D85" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3113,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="C86" s="2">
-        <v>22752648185</v>
+        <v>22.49</v>
+      </c>
+      <c r="C86" s="3">
+        <v>25984494269</v>
       </c>
       <c r="D86" s="3">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>148.93</v>
-      </c>
-      <c r="C87" s="2">
-        <v>41771538246</v>
+        <v>149.63</v>
+      </c>
+      <c r="C87" s="3">
+        <v>41211349605</v>
       </c>
       <c r="D87" s="3">
         <v>13</v>
@@ -3141,10 +3141,10 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>158.9</v>
-      </c>
-      <c r="C88" s="2">
-        <v>22957242860</v>
+        <v>157.73</v>
+      </c>
+      <c r="C88" s="3">
+        <v>22446161659</v>
       </c>
       <c r="D88" s="3">
         <v>12</v>
@@ -3155,10 +3155,10 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>133.24</v>
-      </c>
-      <c r="C89" s="2">
-        <v>15684023148</v>
+        <v>132.07</v>
+      </c>
+      <c r="C89" s="3">
+        <v>15546879077</v>
       </c>
       <c r="D89" s="3">
         <v>14</v>
@@ -3169,10 +3169,10 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>78.65000000000001</v>
-      </c>
-      <c r="C90" s="2">
-        <v>23168485829</v>
+        <v>76.39</v>
+      </c>
+      <c r="C90" s="3">
+        <v>23396406706</v>
       </c>
       <c r="D90" s="3">
         <v>25</v>
@@ -3183,10 +3183,10 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>45.26</v>
-      </c>
-      <c r="C91" s="2">
-        <v>9830290593</v>
+        <v>45.47</v>
+      </c>
+      <c r="C91" s="3">
+        <v>9946638651</v>
       </c>
       <c r="D91" s="3">
         <v>43</v>
@@ -3197,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>41.52</v>
-      </c>
-      <c r="C92" s="2">
-        <v>17457471978</v>
+        <v>42.15</v>
+      </c>
+      <c r="C92" s="3">
+        <v>18826351843</v>
       </c>
       <c r="D92" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>83.31999999999999</v>
-      </c>
-      <c r="C93" s="2">
-        <v>21047387262</v>
+        <v>83.86</v>
+      </c>
+      <c r="C93" s="3">
+        <v>21096942044</v>
       </c>
       <c r="D93" s="3">
         <v>23</v>
@@ -3225,13 +3225,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>93.3</v>
-      </c>
-      <c r="C94" s="2">
-        <v>12486160805</v>
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C94" s="3">
+        <v>12430249239</v>
       </c>
       <c r="D94" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>633.97</v>
-      </c>
-      <c r="C95" s="2">
-        <v>120188660859</v>
+        <v>645.53</v>
+      </c>
+      <c r="C95" s="3">
+        <v>122637883065</v>
       </c>
       <c r="D95" s="3">
         <v>3</v>
@@ -3253,10 +3253,10 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>214.94</v>
-      </c>
-      <c r="C96" s="2">
-        <v>74832119318</v>
+        <v>211.66</v>
+      </c>
+      <c r="C96" s="3">
+        <v>76640493737</v>
       </c>
       <c r="D96" s="3">
         <v>9</v>
@@ -3267,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>97.03</v>
-      </c>
-      <c r="C97" s="2">
-        <v>14908661071</v>
+        <v>91.65000000000001</v>
+      </c>
+      <c r="C97" s="3">
+        <v>14894257516</v>
       </c>
       <c r="D97" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,10 +3281,10 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>80.91</v>
-      </c>
-      <c r="C98" s="2">
-        <v>68359986753</v>
+        <v>81.73</v>
+      </c>
+      <c r="C98" s="3">
+        <v>68601734939</v>
       </c>
       <c r="D98" s="3">
         <v>24</v>
@@ -3295,10 +3295,10 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>186.44</v>
-      </c>
-      <c r="C99" s="2">
-        <v>23472868519</v>
+        <v>189.62</v>
+      </c>
+      <c r="C99" s="3">
+        <v>23873271227</v>
       </c>
       <c r="D99" s="3">
         <v>10</v>
@@ -3309,13 +3309,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>65.41</v>
-      </c>
-      <c r="C100" s="2">
-        <v>8800633819</v>
+        <v>69.03</v>
+      </c>
+      <c r="C100" s="3">
+        <v>9354414704</v>
       </c>
       <c r="D100" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>55.74</v>
-      </c>
-      <c r="C101" s="2">
-        <v>250809385820</v>
+        <v>53.36</v>
+      </c>
+      <c r="C101" s="3">
+        <v>247920638484</v>
       </c>
       <c r="D101" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>191.25</v>
-      </c>
-      <c r="C102" s="2">
-        <v>67771523584</v>
+        <v>191.23</v>
+      </c>
+      <c r="C102" s="3">
+        <v>69471704649</v>
       </c>
       <c r="D102" s="3">
         <v>10</v>
@@ -3351,10 +3351,10 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1599.7</v>
-      </c>
-      <c r="C103" s="2">
-        <v>43501820246</v>
+        <v>1556</v>
+      </c>
+      <c r="C103" s="3">
+        <v>41906802430</v>
       </c>
       <c r="D103" s="3">
         <v>1</v>
@@ -3365,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>246.27</v>
-      </c>
-      <c r="C104" s="2">
-        <v>37563788977</v>
+        <v>250.46</v>
+      </c>
+      <c r="C104" s="3">
+        <v>37410526404</v>
       </c>
       <c r="D104" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,10 +3379,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>57.72</v>
-      </c>
-      <c r="C105" s="2">
-        <v>17094056563</v>
+        <v>56.81</v>
+      </c>
+      <c r="C105" s="3">
+        <v>16245700446</v>
       </c>
       <c r="D105" s="3">
         <v>34</v>
@@ -3393,10 +3393,10 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>61.3</v>
-      </c>
-      <c r="C106" s="2">
-        <v>34452374244</v>
+        <v>60.88</v>
+      </c>
+      <c r="C106" s="3">
+        <v>35004029428</v>
       </c>
       <c r="D106" s="3">
         <v>32</v>
@@ -3407,10 +3407,10 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>22.04</v>
-      </c>
-      <c r="C107" s="2">
-        <v>12056596628</v>
+        <v>22.08</v>
+      </c>
+      <c r="C107" s="3">
+        <v>11917815737</v>
       </c>
       <c r="D107" s="3">
         <v>89</v>
@@ -3421,13 +3421,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>118.27</v>
-      </c>
-      <c r="C108" s="2">
-        <v>55276919908</v>
+        <v>125.6</v>
+      </c>
+      <c r="C108" s="3">
+        <v>55731343313</v>
       </c>
       <c r="D108" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3435,13 +3435,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>18.64</v>
-      </c>
-      <c r="C109" s="2">
-        <v>7316958806</v>
+        <v>18.92</v>
+      </c>
+      <c r="C109" s="3">
+        <v>7617439186</v>
       </c>
       <c r="D109" s="3">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3449,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>396</v>
-      </c>
-      <c r="C110" s="2">
-        <v>21014789667</v>
+        <v>405.12</v>
+      </c>
+      <c r="C110" s="3">
+        <v>21282585360</v>
       </c>
       <c r="D110" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3463,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>47.24</v>
-      </c>
-      <c r="C111" s="2">
-        <v>52544252885</v>
+        <v>49.92</v>
+      </c>
+      <c r="C111" s="3">
+        <v>53203163509</v>
       </c>
       <c r="D111" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,10 +3477,10 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>364.12</v>
-      </c>
-      <c r="C112" s="2">
-        <v>157816320778</v>
+        <v>359</v>
+      </c>
+      <c r="C112" s="3">
+        <v>160896548903</v>
       </c>
       <c r="D112" s="3">
         <v>5</v>
@@ -3491,13 +3491,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>7.04</v>
-      </c>
-      <c r="C113" s="2">
-        <v>5249082249</v>
+        <v>7.54</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5703759436</v>
       </c>
       <c r="D113" s="3">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,10 +3505,10 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>47.88</v>
-      </c>
-      <c r="C114" s="2">
-        <v>14349007356</v>
+        <v>48.09</v>
+      </c>
+      <c r="C114" s="3">
+        <v>14057796969</v>
       </c>
       <c r="D114" s="3">
         <v>41</v>
@@ -3519,13 +3519,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>123.767</v>
-      </c>
-      <c r="C115" s="2">
-        <v>28636595776</v>
+        <v>121.26</v>
+      </c>
+      <c r="C115" s="3">
+        <v>28972781757</v>
       </c>
       <c r="D115" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3533,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>245.36</v>
-      </c>
-      <c r="C116" s="2">
-        <v>220778623692</v>
+        <v>259.5</v>
+      </c>
+      <c r="C116" s="3">
+        <v>231038548842</v>
       </c>
       <c r="D116" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3547,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>49.22</v>
-      </c>
-      <c r="C117" s="2">
-        <v>207518927580</v>
+        <v>47.02</v>
+      </c>
+      <c r="C117" s="3">
+        <v>203685081820</v>
       </c>
       <c r="D117" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3561,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>90.16</v>
-      </c>
-      <c r="C118" s="2">
-        <v>72031720578</v>
+        <v>95.04000000000001</v>
+      </c>
+      <c r="C118" s="3">
+        <v>70059494827</v>
       </c>
       <c r="D118" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,10 +3575,10 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>345.06</v>
-      </c>
-      <c r="C119" s="2">
-        <v>36031950792</v>
+        <v>358.6</v>
+      </c>
+      <c r="C119" s="3">
+        <v>37397548152</v>
       </c>
       <c r="D119" s="3">
         <v>5</v>
@@ -3591,8 +3591,8 @@
       <c r="B120" s="2">
         <v>11</v>
       </c>
-      <c r="C120" s="2">
-        <v>12647602319</v>
+      <c r="C120" s="3">
+        <v>12555357326</v>
       </c>
       <c r="D120" s="3">
         <v>180</v>
@@ -3603,10 +3603,10 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>79.31999999999999</v>
-      </c>
-      <c r="C121" s="2">
-        <v>42586430801</v>
+        <v>79.31</v>
+      </c>
+      <c r="C121" s="3">
+        <v>41036825296</v>
       </c>
       <c r="D121" s="3">
         <v>24</v>
@@ -3617,10 +3617,10 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>45.89</v>
-      </c>
-      <c r="C122" s="2">
-        <v>33560121294</v>
+        <v>45.29</v>
+      </c>
+      <c r="C122" s="3">
+        <v>35058546057</v>
       </c>
       <c r="D122" s="3">
         <v>43</v>
@@ -3631,13 +3631,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>142.33</v>
-      </c>
-      <c r="C123" s="2">
-        <v>17524016500</v>
+        <v>139.85</v>
+      </c>
+      <c r="C123" s="3">
+        <v>17548229328</v>
       </c>
       <c r="D123" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3645,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>76.28</v>
-      </c>
-      <c r="C124" s="2">
-        <v>101943944111</v>
+        <v>73.95999999999999</v>
+      </c>
+      <c r="C124" s="3">
+        <v>93543078559</v>
       </c>
       <c r="D124" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,10 +3659,10 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>95.03</v>
-      </c>
-      <c r="C125" s="2">
-        <v>174274560143</v>
+        <v>94.7</v>
+      </c>
+      <c r="C125" s="3">
+        <v>174023488295</v>
       </c>
       <c r="D125" s="3">
         <v>20</v>
@@ -3673,10 +3673,10 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>67</v>
-      </c>
-      <c r="C126" s="2">
-        <v>13486424214</v>
+        <v>67.5</v>
+      </c>
+      <c r="C126" s="3">
+        <v>13363332306</v>
       </c>
       <c r="D126" s="3">
         <v>29</v>
@@ -3687,10 +3687,10 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>73.93000000000001</v>
-      </c>
-      <c r="C127" s="2">
-        <v>58703022027</v>
+        <v>73.58</v>
+      </c>
+      <c r="C127" s="3">
+        <v>58101943038</v>
       </c>
       <c r="D127" s="3">
         <v>26</v>
@@ -3701,13 +3701,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>44.56</v>
-      </c>
-      <c r="C128" s="2">
-        <v>27650606677</v>
+        <v>46.02</v>
+      </c>
+      <c r="C128" s="3">
+        <v>29736855856</v>
       </c>
       <c r="D128" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3715,13 +3715,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>73.91</v>
-      </c>
-      <c r="C129" s="2">
-        <v>54538118608</v>
+        <v>72.55</v>
+      </c>
+      <c r="C129" s="3">
+        <v>38981996795</v>
       </c>
       <c r="D129" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,13 +3729,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>323</v>
-      </c>
-      <c r="C130" s="2">
-        <v>103289877317</v>
+        <v>330.95</v>
+      </c>
+      <c r="C130" s="3">
+        <v>100135063191</v>
       </c>
       <c r="D130" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>95.44</v>
-      </c>
-      <c r="C131" s="2">
-        <v>29324076297</v>
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C131" s="3">
+        <v>30357001589</v>
       </c>
       <c r="D131" s="3">
         <v>20</v>
@@ -3757,10 +3757,10 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>200.3</v>
-      </c>
-      <c r="C132" s="2">
-        <v>49898211160</v>
+        <v>207.19</v>
+      </c>
+      <c r="C132" s="3">
+        <v>50765360027</v>
       </c>
       <c r="D132" s="3">
         <v>9</v>
@@ -3771,10 +3771,10 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>130.82</v>
-      </c>
-      <c r="C133" s="2">
-        <v>17370551634</v>
+        <v>127.67</v>
+      </c>
+      <c r="C133" s="3">
+        <v>16599838347</v>
       </c>
       <c r="D133" s="3">
         <v>15</v>
@@ -3785,13 +3785,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>84.29000000000001</v>
-      </c>
-      <c r="C134" s="2">
-        <v>30577623055</v>
+        <v>79.89</v>
+      </c>
+      <c r="C134" s="3">
+        <v>28873959079</v>
       </c>
       <c r="D134" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3799,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>250.5</v>
-      </c>
-      <c r="C135" s="2">
-        <v>175584395253</v>
+        <v>247.02</v>
+      </c>
+      <c r="C135" s="3">
+        <v>177978090276</v>
       </c>
       <c r="D135" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,10 +3813,10 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>193.68</v>
-      </c>
-      <c r="C136" s="2">
-        <v>349316232905</v>
+        <v>191.44</v>
+      </c>
+      <c r="C136" s="3">
+        <v>343490129629</v>
       </c>
       <c r="D136" s="3">
         <v>10</v>
@@ -3827,10 +3827,10 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>48.9</v>
-      </c>
-      <c r="C137" s="2">
-        <v>21842960135</v>
+        <v>48.77</v>
+      </c>
+      <c r="C137" s="3">
+        <v>21408351676</v>
       </c>
       <c r="D137" s="3">
         <v>40</v>
@@ -3841,10 +3841,10 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>41.08</v>
-      </c>
-      <c r="C138" s="2">
-        <v>21966227605</v>
+        <v>40.7</v>
+      </c>
+      <c r="C138" s="3">
+        <v>21633217767</v>
       </c>
       <c r="D138" s="3">
         <v>48</v>
@@ -3855,10 +3855,10 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>32.78</v>
-      </c>
-      <c r="C139" s="2">
-        <v>17218511990</v>
+        <v>32.47</v>
+      </c>
+      <c r="C139" s="3">
+        <v>17684288872</v>
       </c>
       <c r="D139" s="3">
         <v>60</v>
@@ -3869,13 +3869,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>146.97</v>
-      </c>
-      <c r="C140" s="2">
-        <v>39954590896</v>
+        <v>137.3</v>
+      </c>
+      <c r="C140" s="3">
+        <v>39949613251</v>
       </c>
       <c r="D140" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>111.478</v>
-      </c>
-      <c r="C141" s="2">
-        <v>26110330443</v>
+        <v>112.01</v>
+      </c>
+      <c r="C141" s="3">
+        <v>26181978341</v>
       </c>
       <c r="D141" s="3">
         <v>17</v>
@@ -3897,13 +3897,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>128.5</v>
-      </c>
-      <c r="C142" s="2">
-        <v>18301188382</v>
+        <v>122.77</v>
+      </c>
+      <c r="C142" s="3">
+        <v>17920899702</v>
       </c>
       <c r="D142" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>58.97</v>
-      </c>
-      <c r="C143" s="2">
-        <v>44836611955</v>
+        <v>61.41</v>
+      </c>
+      <c r="C143" s="3">
+        <v>44518495887</v>
       </c>
       <c r="D143" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>395.64</v>
-      </c>
-      <c r="C144" s="2">
-        <v>15230613844</v>
+        <v>383.28</v>
+      </c>
+      <c r="C144" s="3">
+        <v>14925770165</v>
       </c>
       <c r="D144" s="3">
         <v>5</v>
@@ -3939,13 +3939,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="C145" s="2">
-        <v>16144303576</v>
+        <v>41.54</v>
+      </c>
+      <c r="C145" s="3">
+        <v>16003936908</v>
       </c>
       <c r="D145" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3953,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>133.49</v>
-      </c>
-      <c r="C146" s="2">
-        <v>16913176255</v>
+        <v>131.42</v>
+      </c>
+      <c r="C146" s="3">
+        <v>17543303907</v>
       </c>
       <c r="D146" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>121.18</v>
-      </c>
-      <c r="C147" s="2">
-        <v>24337049301</v>
+        <v>121.3</v>
+      </c>
+      <c r="C147" s="3">
+        <v>24122571743</v>
       </c>
       <c r="D147" s="3">
         <v>16</v>
@@ -3981,13 +3981,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>91.04000000000001</v>
-      </c>
-      <c r="C148" s="2">
-        <v>66741447808</v>
+        <v>88.44</v>
+      </c>
+      <c r="C148" s="3">
+        <v>66546126239</v>
       </c>
       <c r="D148" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>108.36</v>
-      </c>
-      <c r="C149" s="2">
-        <v>12264972996</v>
+        <v>106.75</v>
+      </c>
+      <c r="C149" s="3">
+        <v>11501569677</v>
       </c>
       <c r="D149" s="3">
         <v>18</v>
@@ -4009,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>20.79</v>
-      </c>
-      <c r="C150" s="2">
-        <v>13884090332</v>
+        <v>21.41</v>
+      </c>
+      <c r="C150" s="3">
+        <v>14075058894</v>
       </c>
       <c r="D150" s="3">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4023,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>26.84</v>
-      </c>
-      <c r="C151" s="2">
-        <v>6730066314</v>
+        <v>26.21</v>
+      </c>
+      <c r="C151" s="3">
+        <v>6768185425</v>
       </c>
       <c r="D151" s="3">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>416.56</v>
-      </c>
-      <c r="C152" s="2">
-        <v>40285656588</v>
+        <v>417.59</v>
+      </c>
+      <c r="C152" s="3">
+        <v>38901235784</v>
       </c>
       <c r="D152" s="3">
         <v>4</v>
@@ -4051,13 +4051,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>154.7</v>
-      </c>
-      <c r="C153" s="2">
-        <v>43148876186</v>
+        <v>148.14</v>
+      </c>
+      <c r="C153" s="3">
+        <v>43939741176</v>
       </c>
       <c r="D153" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>65.44</v>
-      </c>
-      <c r="C154" s="2">
-        <v>44546725812</v>
+        <v>65.66500000000001</v>
+      </c>
+      <c r="C154" s="3">
+        <v>44879803551</v>
       </c>
       <c r="D154" s="3">
         <v>30</v>
@@ -4079,10 +4079,10 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>226.57</v>
-      </c>
-      <c r="C155" s="2">
-        <v>65322699876</v>
+        <v>221</v>
+      </c>
+      <c r="C155" s="3">
+        <v>60436877734</v>
       </c>
       <c r="D155" s="3">
         <v>8</v>
@@ -4093,10 +4093,10 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>72.39</v>
-      </c>
-      <c r="C156" s="2">
-        <v>24317868208</v>
+        <v>72.01000000000001</v>
+      </c>
+      <c r="C156" s="3">
+        <v>24622671202</v>
       </c>
       <c r="D156" s="3">
         <v>27</v>
@@ -4107,10 +4107,10 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>185.51</v>
-      </c>
-      <c r="C157" s="2">
-        <v>22587269664</v>
+        <v>183.16</v>
+      </c>
+      <c r="C157" s="3">
+        <v>21625718634</v>
       </c>
       <c r="D157" s="3">
         <v>10</v>
@@ -4121,10 +4121,10 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>58.26</v>
-      </c>
-      <c r="C158" s="2">
-        <v>22122174072</v>
+        <v>59.37</v>
+      </c>
+      <c r="C158" s="3">
+        <v>22310369499</v>
       </c>
       <c r="D158" s="3">
         <v>33</v>
@@ -4135,10 +4135,10 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>301.38</v>
-      </c>
-      <c r="C159" s="2">
-        <v>109212813157</v>
+        <v>309.86</v>
+      </c>
+      <c r="C159" s="3">
+        <v>112138653611</v>
       </c>
       <c r="D159" s="3">
         <v>6</v>
@@ -4149,10 +4149,10 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>112.12</v>
-      </c>
-      <c r="C160" s="2">
-        <v>15018616008</v>
+        <v>111.68</v>
+      </c>
+      <c r="C160" s="3">
+        <v>15496860224</v>
       </c>
       <c r="D160" s="3">
         <v>17</v>
@@ -4163,10 +4163,10 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>87.36</v>
-      </c>
-      <c r="C161" s="2">
-        <v>53009366884</v>
+        <v>86.54000000000001</v>
+      </c>
+      <c r="C161" s="3">
+        <v>53474527064</v>
       </c>
       <c r="D161" s="3">
         <v>22</v>
@@ -4177,13 +4177,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>62.2</v>
-      </c>
-      <c r="C162" s="2">
-        <v>35676546836</v>
+        <v>65.8</v>
+      </c>
+      <c r="C162" s="3">
+        <v>38364740181</v>
       </c>
       <c r="D162" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>741.97</v>
-      </c>
-      <c r="C163" s="2">
-        <v>64768205946</v>
+        <v>712.51</v>
+      </c>
+      <c r="C163" s="3">
+        <v>63089707436</v>
       </c>
       <c r="D163" s="3">
         <v>2</v>
@@ -4205,10 +4205,10 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>67.84999999999999</v>
-      </c>
-      <c r="C164" s="2">
-        <v>25570287557</v>
+        <v>68.04000000000001</v>
+      </c>
+      <c r="C164" s="3">
+        <v>25725017940</v>
       </c>
       <c r="D164" s="3">
         <v>29</v>
@@ -4219,10 +4219,10 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>86.12</v>
-      </c>
-      <c r="C165" s="2">
-        <v>29914509614</v>
+        <v>86.92</v>
+      </c>
+      <c r="C165" s="3">
+        <v>28995582743</v>
       </c>
       <c r="D165" s="3">
         <v>22</v>
@@ -4233,10 +4233,10 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>278.74</v>
-      </c>
-      <c r="C166" s="2">
-        <v>17855173844</v>
+        <v>268.74</v>
+      </c>
+      <c r="C166" s="3">
+        <v>18275051988</v>
       </c>
       <c r="D166" s="3">
         <v>7</v>
@@ -4247,10 +4247,10 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>49.65</v>
-      </c>
-      <c r="C167" s="2">
-        <v>11035128480</v>
+        <v>49.57</v>
+      </c>
+      <c r="C167" s="3">
+        <v>11344056662</v>
       </c>
       <c r="D167" s="3">
         <v>39</v>
@@ -4261,10 +4261,10 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>126.66</v>
-      </c>
-      <c r="C168" s="2">
-        <v>49893770825</v>
+        <v>129</v>
+      </c>
+      <c r="C168" s="3">
+        <v>51370673508</v>
       </c>
       <c r="D168" s="3">
         <v>15</v>
@@ -4275,10 +4275,10 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>98.27</v>
-      </c>
-      <c r="C169" s="2">
-        <v>19507308041</v>
+        <v>94.65000000000001</v>
+      </c>
+      <c r="C169" s="3">
+        <v>19230654517</v>
       </c>
       <c r="D169" s="3">
         <v>20</v>
@@ -4289,10 +4289,10 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>55.34</v>
-      </c>
-      <c r="C170" s="2">
-        <v>12547202726</v>
+        <v>56.09</v>
+      </c>
+      <c r="C170" s="3">
+        <v>12721162460</v>
       </c>
       <c r="D170" s="3">
         <v>35</v>
@@ -4303,10 +4303,10 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>89.86</v>
-      </c>
-      <c r="C171" s="2">
-        <v>55027565285</v>
+        <v>88.88</v>
+      </c>
+      <c r="C171" s="3">
+        <v>56604267334</v>
       </c>
       <c r="D171" s="3">
         <v>22</v>
@@ -4317,13 +4317,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>43.18</v>
-      </c>
-      <c r="C172" s="2">
-        <v>41278095966</v>
+        <v>42.03</v>
+      </c>
+      <c r="C172" s="3">
+        <v>41837937035</v>
       </c>
       <c r="D172" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,13 +4331,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>101.19</v>
-      </c>
-      <c r="C173" s="2">
-        <v>16979365470</v>
+        <v>97.98999999999999</v>
+      </c>
+      <c r="C173" s="3">
+        <v>16583236140</v>
       </c>
       <c r="D173" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4345,13 +4345,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>153.66</v>
-      </c>
-      <c r="C174" s="2">
-        <v>20608719251</v>
+        <v>151.87</v>
+      </c>
+      <c r="C174" s="3">
+        <v>21046722473</v>
       </c>
       <c r="D174" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>118.98</v>
-      </c>
-      <c r="C175" s="2">
-        <v>15904469936</v>
+        <v>122.1</v>
+      </c>
+      <c r="C175" s="3">
+        <v>15486659550</v>
       </c>
       <c r="D175" s="3">
         <v>16</v>
@@ -4373,13 +4373,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="C176" s="2">
-        <v>45239598559</v>
+        <v>12.01</v>
+      </c>
+      <c r="C176" s="3">
+        <v>45668912061</v>
       </c>
       <c r="D176" s="3">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4387,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>70.95999999999999</v>
-      </c>
-      <c r="C177" s="2">
-        <v>11319556154</v>
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C177" s="3">
+        <v>11392671161</v>
       </c>
       <c r="D177" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>48.65</v>
-      </c>
-      <c r="C178" s="2">
-        <v>27713709159</v>
+        <v>48.68</v>
+      </c>
+      <c r="C178" s="3">
+        <v>28047209608</v>
       </c>
       <c r="D178" s="3">
         <v>40</v>
@@ -4415,10 +4415,10 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>283.7</v>
-      </c>
-      <c r="C179" s="2">
-        <v>802226263079</v>
+        <v>286.03</v>
+      </c>
+      <c r="C179" s="3">
+        <v>786015648423</v>
       </c>
       <c r="D179" s="3">
         <v>6</v>
@@ -4429,13 +4429,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>90.12</v>
-      </c>
-      <c r="C180" s="2">
-        <v>13077626809</v>
+        <v>86</v>
+      </c>
+      <c r="C180" s="3">
+        <v>12361040040</v>
       </c>
       <c r="D180" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4443,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>31.24</v>
-      </c>
-      <c r="C181" s="2">
-        <v>46775934046</v>
+        <v>33</v>
+      </c>
+      <c r="C181" s="3">
+        <v>50183233661</v>
       </c>
       <c r="D181" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>266</v>
-      </c>
-      <c r="C182" s="2">
-        <v>70206931396</v>
+        <v>272.38</v>
+      </c>
+      <c r="C182" s="3">
+        <v>70069753687</v>
       </c>
       <c r="D182" s="3">
         <v>7</v>
@@ -4471,13 +4471,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>31.9</v>
-      </c>
-      <c r="C183" s="2">
-        <v>17698964989</v>
+        <v>32.29</v>
+      </c>
+      <c r="C183" s="3">
+        <v>17790512547</v>
       </c>
       <c r="D183" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>214.42</v>
-      </c>
-      <c r="C184" s="2">
-        <v>13181247909</v>
+        <v>211.72</v>
+      </c>
+      <c r="C184" s="3">
+        <v>13121341177</v>
       </c>
       <c r="D184" s="3">
         <v>9</v>
@@ -4499,10 +4499,10 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>138</v>
-      </c>
-      <c r="C185" s="2">
-        <v>86227836338</v>
+        <v>138.87</v>
+      </c>
+      <c r="C185" s="3">
+        <v>83524150029</v>
       </c>
       <c r="D185" s="3">
         <v>14</v>
@@ -4513,10 +4513,10 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>114.68</v>
-      </c>
-      <c r="C186" s="2">
-        <v>76940999209</v>
+        <v>111.4</v>
+      </c>
+      <c r="C186" s="3">
+        <v>76437731716</v>
       </c>
       <c r="D186" s="3">
         <v>17</v>
@@ -4527,10 +4527,10 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>33.93</v>
-      </c>
-      <c r="C187" s="2">
-        <v>23851086307</v>
+        <v>33.59</v>
+      </c>
+      <c r="C187" s="3">
+        <v>24912043416</v>
       </c>
       <c r="D187" s="3">
         <v>58</v>
@@ -4541,10 +4541,10 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>55.98</v>
-      </c>
-      <c r="C188" s="2">
-        <v>7220992346</v>
+        <v>55.57</v>
+      </c>
+      <c r="C188" s="3">
+        <v>7541119364</v>
       </c>
       <c r="D188" s="3">
         <v>35</v>
@@ -4555,10 +4555,10 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>40.44</v>
-      </c>
-      <c r="C189" s="2">
-        <v>5316145034</v>
+        <v>40.45</v>
+      </c>
+      <c r="C189" s="3">
+        <v>5145160356</v>
       </c>
       <c r="D189" s="3">
         <v>48</v>
@@ -4569,10 +4569,10 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>276</v>
-      </c>
-      <c r="C190" s="2">
-        <v>22588410653</v>
+        <v>282.67</v>
+      </c>
+      <c r="C190" s="3">
+        <v>23581248543</v>
       </c>
       <c r="D190" s="3">
         <v>7</v>
@@ -4583,13 +4583,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>108.84</v>
-      </c>
-      <c r="C191" s="2">
-        <v>14348034068</v>
+        <v>112.83</v>
+      </c>
+      <c r="C191" s="3">
+        <v>14584984320</v>
       </c>
       <c r="D191" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4597,13 +4597,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>32.75</v>
-      </c>
-      <c r="C192" s="2">
-        <v>19535225014</v>
+        <v>31.19</v>
+      </c>
+      <c r="C192" s="3">
+        <v>18564460379</v>
       </c>
       <c r="D192" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,13 +4611,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>33.14</v>
-      </c>
-      <c r="C193" s="2">
-        <v>19513326249</v>
+        <v>32.2</v>
+      </c>
+      <c r="C193" s="3">
+        <v>19050366382</v>
       </c>
       <c r="D193" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4625,13 +4625,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>158.88</v>
-      </c>
-      <c r="C194" s="2">
-        <v>27676431662</v>
+        <v>167.3</v>
+      </c>
+      <c r="C194" s="3">
+        <v>28400205118</v>
       </c>
       <c r="D194" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>106.66</v>
-      </c>
-      <c r="C195" s="2">
-        <v>8218030111</v>
+        <v>106.5</v>
+      </c>
+      <c r="C195" s="3">
+        <v>7849878329</v>
       </c>
       <c r="D195" s="3">
         <v>18</v>
@@ -4653,13 +4653,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>10.64</v>
-      </c>
-      <c r="C196" s="2">
-        <v>4699113596</v>
+        <v>8.35</v>
+      </c>
+      <c r="C196" s="3">
+        <v>3686859755</v>
       </c>
       <c r="D196" s="3">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>171.52</v>
-      </c>
-      <c r="C197" s="2">
-        <v>27190652316</v>
+        <v>172.64</v>
+      </c>
+      <c r="C197" s="3">
+        <v>27770062054</v>
       </c>
       <c r="D197" s="3">
         <v>11</v>
@@ -4681,10 +4681,10 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>72.23</v>
-      </c>
-      <c r="C198" s="2">
-        <v>24781557751</v>
+        <v>72</v>
+      </c>
+      <c r="C198" s="3">
+        <v>24020536551</v>
       </c>
       <c r="D198" s="3">
         <v>27</v>
@@ -4695,10 +4695,10 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>169.47</v>
-      </c>
-      <c r="C199" s="2">
-        <v>49230785947</v>
+        <v>167.91</v>
+      </c>
+      <c r="C199" s="3">
+        <v>48601849885</v>
       </c>
       <c r="D199" s="3">
         <v>11</v>
@@ -4709,13 +4709,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>12.15</v>
-      </c>
-      <c r="C200" s="2">
-        <v>103698412851</v>
+        <v>12.04</v>
+      </c>
+      <c r="C200" s="3">
+        <v>109055502996</v>
       </c>
       <c r="D200" s="3">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4723,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>69.18000000000001</v>
-      </c>
-      <c r="C201" s="2">
-        <v>84532184901</v>
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C201" s="3">
+        <v>82475780651</v>
       </c>
       <c r="D201" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4737,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>57.99</v>
-      </c>
-      <c r="C202" s="2">
-        <v>36617308866</v>
+        <v>58.74</v>
+      </c>
+      <c r="C202" s="3">
+        <v>35093820315</v>
       </c>
       <c r="D202" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>95.73999999999999</v>
-      </c>
-      <c r="C203" s="2">
-        <v>9994846490</v>
+        <v>97.62</v>
+      </c>
+      <c r="C203" s="3">
+        <v>10163649103</v>
       </c>
       <c r="D203" s="3">
         <v>20</v>
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>36.91</v>
-      </c>
-      <c r="C204" s="2">
-        <v>28625098628</v>
+        <v>39.7</v>
+      </c>
+      <c r="C204" s="3">
+        <v>29766865103</v>
       </c>
       <c r="D204" s="3">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>56.1</v>
-      </c>
-      <c r="C205" s="2">
-        <v>79499105503</v>
+        <v>55.72</v>
+      </c>
+      <c r="C205" s="3">
+        <v>79526279694</v>
       </c>
       <c r="D205" s="3">
         <v>35</v>
@@ -4793,10 +4793,10 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>2200.25</v>
-      </c>
-      <c r="C206" s="2">
-        <v>1465548066151</v>
+        <v>2126.5</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1473528010760</v>
       </c>
       <c r="D206" s="3">
         <v>0</v>
@@ -4807,10 +4807,10 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>2199.48</v>
-      </c>
-      <c r="C207" s="2">
-        <v>1444995042440</v>
+        <v>2124.2</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1479393447485</v>
       </c>
       <c r="D207" s="3">
         <v>0</v>
@@ -4821,13 +4821,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>103.19</v>
-      </c>
-      <c r="C208" s="2">
-        <v>14501475903</v>
+        <v>106.23</v>
+      </c>
+      <c r="C208" s="3">
+        <v>15187790613</v>
       </c>
       <c r="D208" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>201.29</v>
-      </c>
-      <c r="C209" s="2">
-        <v>60291773010</v>
+        <v>199.8</v>
+      </c>
+      <c r="C209" s="3">
+        <v>59372329993</v>
       </c>
       <c r="D209" s="3">
         <v>9</v>
@@ -4849,13 +4849,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>23.52</v>
-      </c>
-      <c r="C210" s="2">
-        <v>9022591210</v>
+        <v>24.39</v>
+      </c>
+      <c r="C210" s="3">
+        <v>8839420580</v>
       </c>
       <c r="D210" s="3">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>132.4</v>
-      </c>
-      <c r="C211" s="2">
-        <v>25830235836</v>
+        <v>135.98</v>
+      </c>
+      <c r="C211" s="3">
+        <v>26481772557</v>
       </c>
       <c r="D211" s="3">
         <v>14</v>
@@ -4877,10 +4877,10 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>319.05</v>
-      </c>
-      <c r="C212" s="2">
-        <v>105769453482</v>
+        <v>318.53</v>
+      </c>
+      <c r="C212" s="3">
+        <v>110233093327</v>
       </c>
       <c r="D212" s="3">
         <v>6</v>
@@ -4891,10 +4891,10 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>379.41</v>
-      </c>
-      <c r="C213" s="2">
-        <v>20801806393</v>
+        <v>380.5</v>
+      </c>
+      <c r="C213" s="3">
+        <v>20646764185</v>
       </c>
       <c r="D213" s="3">
         <v>5</v>
@@ -4905,13 +4905,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>20.22</v>
-      </c>
-      <c r="C214" s="2">
-        <v>18128130291</v>
+        <v>20.9</v>
+      </c>
+      <c r="C214" s="3">
+        <v>18708586725</v>
       </c>
       <c r="D214" s="3">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4919,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>95.37</v>
-      </c>
-      <c r="C215" s="2">
-        <v>13010046976</v>
+        <v>90.95</v>
+      </c>
+      <c r="C215" s="3">
+        <v>12497467738</v>
       </c>
       <c r="D215" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4933,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="C216" s="2">
-        <v>14721226797</v>
+        <v>15.09</v>
+      </c>
+      <c r="C216" s="3">
+        <v>16002185610</v>
       </c>
       <c r="D216" s="3">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4947,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>19.28</v>
-      </c>
-      <c r="C217" s="2">
-        <v>6736218902</v>
+        <v>18.69</v>
+      </c>
+      <c r="C217" s="3">
+        <v>6391204289</v>
       </c>
       <c r="D217" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4961,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>179.37</v>
-      </c>
-      <c r="C218" s="2">
-        <v>60275952759</v>
+        <v>182</v>
+      </c>
+      <c r="C218" s="3">
+        <v>61733474767</v>
       </c>
       <c r="D218" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>279.84</v>
-      </c>
-      <c r="C219" s="2">
-        <v>307016933833</v>
+        <v>277.21</v>
+      </c>
+      <c r="C219" s="3">
+        <v>310963720270</v>
       </c>
       <c r="D219" s="3">
         <v>7</v>
@@ -4989,13 +4989,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>61</v>
-      </c>
-      <c r="C220" s="2">
-        <v>18507483569</v>
+        <v>63.16</v>
+      </c>
+      <c r="C220" s="3">
+        <v>19093545973</v>
       </c>
       <c r="D220" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5003,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>32.26</v>
-      </c>
-      <c r="C221" s="2">
-        <v>5267851084</v>
+        <v>33.51</v>
+      </c>
+      <c r="C221" s="3">
+        <v>5505243658</v>
       </c>
       <c r="D221" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>50.03</v>
-      </c>
-      <c r="C222" s="2">
-        <v>18214356419</v>
+        <v>49.7</v>
+      </c>
+      <c r="C222" s="3">
+        <v>17924494377</v>
       </c>
       <c r="D222" s="3">
         <v>39</v>
@@ -5031,10 +5031,10 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>178.64</v>
-      </c>
-      <c r="C223" s="2">
-        <v>7297929809</v>
+        <v>177.93</v>
+      </c>
+      <c r="C223" s="3">
+        <v>7290370075</v>
       </c>
       <c r="D223" s="3">
         <v>11</v>
@@ -5045,10 +5045,10 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>115.98</v>
-      </c>
-      <c r="C224" s="2">
-        <v>31566422893</v>
+        <v>114.58</v>
+      </c>
+      <c r="C224" s="3">
+        <v>33051106194</v>
       </c>
       <c r="D224" s="3">
         <v>17</v>
@@ -5059,10 +5059,10 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>85.67</v>
-      </c>
-      <c r="C225" s="2">
-        <v>21482688047</v>
+        <v>84.97</v>
+      </c>
+      <c r="C225" s="3">
+        <v>22121293409</v>
       </c>
       <c r="D225" s="3">
         <v>23</v>
@@ -5073,10 +5073,10 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>205.4</v>
-      </c>
-      <c r="C226" s="2">
-        <v>149858670395</v>
+        <v>205.47</v>
+      </c>
+      <c r="C226" s="3">
+        <v>144202000801</v>
       </c>
       <c r="D226" s="3">
         <v>9</v>
@@ -5087,13 +5087,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>14.41</v>
-      </c>
-      <c r="C227" s="2">
-        <v>19483100357</v>
+        <v>14.9</v>
+      </c>
+      <c r="C227" s="3">
+        <v>19162884526</v>
       </c>
       <c r="D227" s="3">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5101,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>28.6</v>
-      </c>
-      <c r="C228" s="2">
-        <v>37074508436</v>
+        <v>28.27</v>
+      </c>
+      <c r="C228" s="3">
+        <v>36477880991</v>
       </c>
       <c r="D228" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5115,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="C229" s="2">
-        <v>3659327155</v>
+        <v>20.34</v>
+      </c>
+      <c r="C229" s="3">
+        <v>3727839963</v>
       </c>
       <c r="D229" s="3">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>48.85</v>
-      </c>
-      <c r="C230" s="2">
-        <v>26771715652</v>
+        <v>48.95</v>
+      </c>
+      <c r="C230" s="3">
+        <v>26582097068</v>
       </c>
       <c r="D230" s="3">
         <v>40</v>
@@ -5143,13 +5143,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>70.70999999999999</v>
-      </c>
-      <c r="C231" s="2">
-        <v>10066323929</v>
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C231" s="3">
+        <v>10537399426</v>
       </c>
       <c r="D231" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5157,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="C232" s="2">
-        <v>10824673215</v>
+        <v>16.133</v>
+      </c>
+      <c r="C232" s="3">
+        <v>11114167555</v>
       </c>
       <c r="D232" s="3">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,10 +5171,10 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>156.64</v>
-      </c>
-      <c r="C233" s="2">
-        <v>31569009868</v>
+        <v>157.42</v>
+      </c>
+      <c r="C233" s="3">
+        <v>32360451619</v>
       </c>
       <c r="D233" s="3">
         <v>12</v>
@@ -5185,10 +5185,10 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>383.23</v>
-      </c>
-      <c r="C234" s="2">
-        <v>50952196344</v>
+        <v>387.29</v>
+      </c>
+      <c r="C234" s="3">
+        <v>51271252452</v>
       </c>
       <c r="D234" s="3">
         <v>5</v>
@@ -5199,10 +5199,10 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>29.23</v>
-      </c>
-      <c r="C235" s="2">
-        <v>12763212648</v>
+        <v>29.46</v>
+      </c>
+      <c r="C235" s="3">
+        <v>12444441409</v>
       </c>
       <c r="D235" s="3">
         <v>67</v>
@@ -5213,13 +5213,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>126.5</v>
-      </c>
-      <c r="C236" s="2">
-        <v>107810783068</v>
+        <v>122.07</v>
+      </c>
+      <c r="C236" s="3">
+        <v>111400559239</v>
       </c>
       <c r="D236" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>113.6</v>
-      </c>
-      <c r="C237" s="2">
-        <v>62348130426</v>
+        <v>113.35</v>
+      </c>
+      <c r="C237" s="3">
+        <v>65956985843</v>
       </c>
       <c r="D237" s="3">
         <v>17</v>
@@ -5241,10 +5241,10 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>551.65</v>
-      </c>
-      <c r="C238" s="2">
-        <v>46553565566</v>
+        <v>557.3200000000001</v>
+      </c>
+      <c r="C238" s="3">
+        <v>47021330416</v>
       </c>
       <c r="D238" s="3">
         <v>3</v>
@@ -5255,10 +5255,10 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>204.77</v>
-      </c>
-      <c r="C239" s="2">
-        <v>15652980028</v>
+        <v>199.37</v>
+      </c>
+      <c r="C239" s="3">
+        <v>15666835712</v>
       </c>
       <c r="D239" s="3">
         <v>9</v>
@@ -5269,13 +5269,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>136.1</v>
-      </c>
-      <c r="C240" s="2">
-        <v>14650576010</v>
+        <v>143.03</v>
+      </c>
+      <c r="C240" s="3">
+        <v>15151262358</v>
       </c>
       <c r="D240" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,10 +5283,10 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>516.75</v>
-      </c>
-      <c r="C241" s="2">
-        <v>73922050962</v>
+        <v>504.11</v>
+      </c>
+      <c r="C241" s="3">
+        <v>74937137763</v>
       </c>
       <c r="D241" s="3">
         <v>3</v>
@@ -5297,13 +5297,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>88.02</v>
-      </c>
-      <c r="C242" s="2">
-        <v>19105690085</v>
+        <v>83.84</v>
+      </c>
+      <c r="C242" s="3">
+        <v>18645574434</v>
       </c>
       <c r="D242" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5311,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>97.88</v>
-      </c>
-      <c r="C243" s="2">
-        <v>40238959349</v>
+        <v>94</v>
+      </c>
+      <c r="C243" s="3">
+        <v>41049000725</v>
       </c>
       <c r="D243" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5325,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>63.87</v>
-      </c>
-      <c r="C244" s="2">
-        <v>262978986865</v>
+        <v>64.88</v>
+      </c>
+      <c r="C244" s="3">
+        <v>257680037923</v>
       </c>
       <c r="D244" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,10 +5339,10 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>431.8</v>
-      </c>
-      <c r="C245" s="2">
-        <v>117099534582</v>
+        <v>443.35</v>
+      </c>
+      <c r="C245" s="3">
+        <v>119016694477</v>
       </c>
       <c r="D245" s="3">
         <v>4</v>
@@ -5353,10 +5353,10 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>50.63</v>
-      </c>
-      <c r="C246" s="2">
-        <v>19344074901</v>
+        <v>50.16</v>
+      </c>
+      <c r="C246" s="3">
+        <v>19610892203</v>
       </c>
       <c r="D246" s="3">
         <v>39</v>
@@ -5367,13 +5367,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>25.82</v>
-      </c>
-      <c r="C247" s="2">
-        <v>9943225235</v>
+        <v>25.58</v>
+      </c>
+      <c r="C247" s="3">
+        <v>10081030699</v>
       </c>
       <c r="D247" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,10 +5381,10 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>255.11</v>
-      </c>
-      <c r="C248" s="2">
-        <v>13679509474</v>
+        <v>267.01</v>
+      </c>
+      <c r="C248" s="3">
+        <v>13753586053</v>
       </c>
       <c r="D248" s="3">
         <v>7</v>
@@ -5395,13 +5395,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>198.05</v>
-      </c>
-      <c r="C249" s="2">
-        <v>37151596374</v>
+        <v>197.8</v>
+      </c>
+      <c r="C249" s="3">
+        <v>36818647507</v>
       </c>
       <c r="D249" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5409,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>45.96</v>
-      </c>
-      <c r="C250" s="2">
-        <v>18361791673</v>
+        <v>44.33</v>
+      </c>
+      <c r="C250" s="3">
+        <v>18729875156</v>
       </c>
       <c r="D250" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5423,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>33.65</v>
-      </c>
-      <c r="C251" s="2">
-        <v>9916007674</v>
+        <v>33.52</v>
+      </c>
+      <c r="C251" s="3">
+        <v>9639095143</v>
       </c>
       <c r="D251" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,10 +5437,10 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>827.02</v>
-      </c>
-      <c r="C252" s="2">
-        <v>95895982132</v>
+        <v>808.83</v>
+      </c>
+      <c r="C252" s="3">
+        <v>97626439997</v>
       </c>
       <c r="D252" s="3">
         <v>2</v>
@@ -5451,10 +5451,10 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>185.32</v>
-      </c>
-      <c r="C253" s="2">
-        <v>17041313656</v>
+        <v>184.14</v>
+      </c>
+      <c r="C253" s="3">
+        <v>16133816029</v>
       </c>
       <c r="D253" s="3">
         <v>10</v>
@@ -5465,10 +5465,10 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>204.75</v>
-      </c>
-      <c r="C254" s="2">
-        <v>65203316741</v>
+        <v>204.99</v>
+      </c>
+      <c r="C254" s="3">
+        <v>66005407895</v>
       </c>
       <c r="D254" s="3">
         <v>9</v>
@@ -5481,8 +5481,8 @@
       <c r="B255" s="2">
         <v>23.33</v>
       </c>
-      <c r="C255" s="2">
-        <v>10839429323</v>
+      <c r="C255" s="3">
+        <v>10658432201</v>
       </c>
       <c r="D255" s="3">
         <v>84</v>
@@ -5493,13 +5493,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>120.5</v>
-      </c>
-      <c r="C256" s="2">
-        <v>15229570971</v>
+        <v>114.41</v>
+      </c>
+      <c r="C256" s="3">
+        <v>15427064676</v>
       </c>
       <c r="D256" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,10 +5507,10 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>149.64</v>
-      </c>
-      <c r="C257" s="2">
-        <v>16240630701</v>
+        <v>147.48</v>
+      </c>
+      <c r="C257" s="3">
+        <v>16210923181</v>
       </c>
       <c r="D257" s="3">
         <v>13</v>
@@ -5521,13 +5521,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>55.32</v>
-      </c>
-      <c r="C258" s="2">
-        <v>39020289194</v>
+        <v>54</v>
+      </c>
+      <c r="C258" s="3">
+        <v>38580262322</v>
       </c>
       <c r="D258" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>145.92</v>
-      </c>
-      <c r="C259" s="2">
-        <v>11626303784</v>
+        <v>149.62</v>
+      </c>
+      <c r="C259" s="3">
+        <v>11220359942</v>
       </c>
       <c r="D259" s="3">
         <v>13</v>
@@ -5549,10 +5549,10 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>166.94</v>
-      </c>
-      <c r="C260" s="2">
-        <v>447411180888</v>
+        <v>166.62</v>
+      </c>
+      <c r="C260" s="3">
+        <v>438371279864</v>
       </c>
       <c r="D260" s="3">
         <v>11</v>
@@ -5563,13 +5563,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>25.56</v>
-      </c>
-      <c r="C261" s="2">
-        <v>8369349499</v>
+        <v>25.28</v>
+      </c>
+      <c r="C261" s="3">
+        <v>8075583602</v>
       </c>
       <c r="D261" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>148.31</v>
-      </c>
-      <c r="C262" s="2">
-        <v>448786068965</v>
+        <v>149.14</v>
+      </c>
+      <c r="C262" s="3">
+        <v>461404665823</v>
       </c>
       <c r="D262" s="3">
         <v>13</v>
@@ -5591,13 +5591,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>58.75</v>
-      </c>
-      <c r="C263" s="2">
-        <v>20030473067</v>
+        <v>57.06</v>
+      </c>
+      <c r="C263" s="3">
+        <v>20136341410</v>
       </c>
       <c r="D263" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5605,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>19.61</v>
-      </c>
-      <c r="C264" s="2">
-        <v>19170916441</v>
+        <v>20.16</v>
+      </c>
+      <c r="C264" s="3">
+        <v>19418247030</v>
       </c>
       <c r="D264" s="3">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>154.71</v>
-      </c>
-      <c r="C265" s="2">
-        <v>29533236934</v>
+        <v>152.82</v>
+      </c>
+      <c r="C265" s="3">
+        <v>28485826560</v>
       </c>
       <c r="D265" s="3">
         <v>12</v>
@@ -5633,13 +5633,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>35.75</v>
-      </c>
-      <c r="C266" s="2">
-        <v>43352644306</v>
+        <v>36.44</v>
+      </c>
+      <c r="C266" s="3">
+        <v>44477537017</v>
       </c>
       <c r="D266" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5647,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="C267" s="2">
-        <v>7899018428</v>
+        <v>18.27</v>
+      </c>
+      <c r="C267" s="3">
+        <v>7754143030</v>
       </c>
       <c r="D267" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>332.95</v>
-      </c>
-      <c r="C268" s="2">
-        <v>51642579144</v>
+        <v>337.96</v>
+      </c>
+      <c r="C268" s="3">
+        <v>53302780146</v>
       </c>
       <c r="D268" s="3">
         <v>5</v>
@@ -5675,10 +5675,10 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>132.62</v>
-      </c>
-      <c r="C269" s="2">
-        <v>44713104225</v>
+        <v>135.97</v>
+      </c>
+      <c r="C269" s="3">
+        <v>44071006805</v>
       </c>
       <c r="D269" s="3">
         <v>14</v>
@@ -5689,13 +5689,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>15.22</v>
-      </c>
-      <c r="C270" s="2">
-        <v>35193040649</v>
+        <v>15.09</v>
+      </c>
+      <c r="C270" s="3">
+        <v>35390222279</v>
       </c>
       <c r="D270" s="3">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,10 +5703,10 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>129.6</v>
-      </c>
-      <c r="C271" s="2">
-        <v>20831280406</v>
+        <v>123.79</v>
+      </c>
+      <c r="C271" s="3">
+        <v>20690977664</v>
       </c>
       <c r="D271" s="3">
         <v>15</v>
@@ -5717,10 +5717,10 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>51.91</v>
-      </c>
-      <c r="C272" s="2">
-        <v>226332481038</v>
+        <v>50.79</v>
+      </c>
+      <c r="C272" s="3">
+        <v>221609877771</v>
       </c>
       <c r="D272" s="3">
         <v>38</v>
@@ -5731,13 +5731,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>34.28</v>
-      </c>
-      <c r="C273" s="2">
-        <v>26683701541</v>
+        <v>33.91</v>
+      </c>
+      <c r="C273" s="3">
+        <v>26428065504</v>
       </c>
       <c r="D273" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>50.88</v>
-      </c>
-      <c r="C274" s="2">
-        <v>8229282528</v>
+        <v>51.3</v>
+      </c>
+      <c r="C274" s="3">
+        <v>8213040978</v>
       </c>
       <c r="D274" s="3">
         <v>38</v>
@@ -5759,10 +5759,10 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>215.33</v>
-      </c>
-      <c r="C275" s="2">
-        <v>19237972187</v>
+        <v>213.76</v>
+      </c>
+      <c r="C275" s="3">
+        <v>19745530465</v>
       </c>
       <c r="D275" s="3">
         <v>9</v>
@@ -5773,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>50.66</v>
-      </c>
-      <c r="C276" s="2">
-        <v>13513500116</v>
+        <v>49.2</v>
+      </c>
+      <c r="C276" s="3">
+        <v>13266912359</v>
       </c>
       <c r="D276" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5787,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>47.76</v>
-      </c>
-      <c r="C277" s="2">
-        <v>13207144578</v>
+        <v>51.23</v>
+      </c>
+      <c r="C277" s="3">
+        <v>13875177059</v>
       </c>
       <c r="D277" s="3">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>109.4</v>
-      </c>
-      <c r="C278" s="2">
-        <v>15995879007</v>
+        <v>108.27</v>
+      </c>
+      <c r="C278" s="3">
+        <v>15135949478</v>
       </c>
       <c r="D278" s="3">
         <v>18</v>
@@ -5815,13 +5815,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>44.21</v>
-      </c>
-      <c r="C279" s="2">
-        <v>5850663749</v>
+        <v>43.77</v>
+      </c>
+      <c r="C279" s="3">
+        <v>5590422217</v>
       </c>
       <c r="D279" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>93.28</v>
-      </c>
-      <c r="C280" s="2">
-        <v>28704647672</v>
+        <v>90.59999999999999</v>
+      </c>
+      <c r="C280" s="3">
+        <v>27665223468</v>
       </c>
       <c r="D280" s="3">
         <v>21</v>
@@ -5843,10 +5843,10 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>239.45</v>
-      </c>
-      <c r="C281" s="2">
-        <v>23542483838</v>
+        <v>240.86</v>
+      </c>
+      <c r="C281" s="3">
+        <v>24113195558</v>
       </c>
       <c r="D281" s="3">
         <v>8</v>
@@ -5857,10 +5857,10 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>187.29</v>
-      </c>
-      <c r="C282" s="2">
-        <v>39925280924</v>
+        <v>185.5</v>
+      </c>
+      <c r="C282" s="3">
+        <v>40160219678</v>
       </c>
       <c r="D282" s="3">
         <v>10</v>
@@ -5871,10 +5871,10 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>260.35</v>
-      </c>
-      <c r="C283" s="2">
-        <v>138282256769</v>
+        <v>261.5</v>
+      </c>
+      <c r="C283" s="3">
+        <v>131497568718</v>
       </c>
       <c r="D283" s="3">
         <v>7</v>
@@ -5885,13 +5885,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>37.21</v>
-      </c>
-      <c r="C284" s="2">
-        <v>11711049614</v>
+        <v>39.19</v>
+      </c>
+      <c r="C284" s="3">
+        <v>11626377253</v>
       </c>
       <c r="D284" s="3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,10 +5899,10 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>209.54</v>
-      </c>
-      <c r="C285" s="2">
-        <v>205260720827</v>
+        <v>215.64</v>
+      </c>
+      <c r="C285" s="3">
+        <v>198963579745</v>
       </c>
       <c r="D285" s="3">
         <v>9</v>
@@ -5913,10 +5913,10 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>352.24</v>
-      </c>
-      <c r="C286" s="2">
-        <v>98993821404</v>
+        <v>345.41</v>
+      </c>
+      <c r="C286" s="3">
+        <v>96876159759</v>
       </c>
       <c r="D286" s="3">
         <v>5</v>
@@ -5927,13 +5927,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>52.44</v>
-      </c>
-      <c r="C287" s="2">
-        <v>10460075200</v>
+        <v>55.57</v>
+      </c>
+      <c r="C287" s="3">
+        <v>10719985389</v>
       </c>
       <c r="D287" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5941,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>48.57</v>
-      </c>
-      <c r="C288" s="2">
-        <v>12541399635</v>
+        <v>49.98</v>
+      </c>
+      <c r="C288" s="3">
+        <v>12129844948</v>
       </c>
       <c r="D288" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5955,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>179.75</v>
-      </c>
-      <c r="C289" s="2">
-        <v>132735833720</v>
+        <v>181.76</v>
+      </c>
+      <c r="C289" s="3">
+        <v>133202081546</v>
       </c>
       <c r="D289" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,10 +5969,10 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>595.08</v>
-      </c>
-      <c r="C290" s="2">
-        <v>86386548859</v>
+        <v>615.01</v>
+      </c>
+      <c r="C290" s="3">
+        <v>88547731062</v>
       </c>
       <c r="D290" s="3">
         <v>3</v>
@@ -5983,13 +5983,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>53.63</v>
-      </c>
-      <c r="C291" s="2">
-        <v>30393173309</v>
+        <v>52.23</v>
+      </c>
+      <c r="C291" s="3">
+        <v>31594872636</v>
       </c>
       <c r="D291" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5997,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>56.16</v>
-      </c>
-      <c r="C292" s="2">
-        <v>44546547542</v>
+        <v>59.07</v>
+      </c>
+      <c r="C292" s="3">
+        <v>45299852042</v>
       </c>
       <c r="D292" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6011,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="C293" s="2">
-        <v>11659434356</v>
+        <v>79.89</v>
+      </c>
+      <c r="C293" s="3">
+        <v>11422713117</v>
       </c>
       <c r="D293" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,10 +6025,10 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>99.59</v>
-      </c>
-      <c r="C294" s="2">
-        <v>33412911699</v>
+        <v>99.66</v>
+      </c>
+      <c r="C294" s="3">
+        <v>33659071352</v>
       </c>
       <c r="D294" s="3">
         <v>19</v>
@@ -6039,10 +6039,10 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>87.31</v>
-      </c>
-      <c r="C295" s="2">
-        <v>18591667059</v>
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C295" s="3">
+        <v>19125508066</v>
       </c>
       <c r="D295" s="3">
         <v>22</v>
@@ -6053,10 +6053,10 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>356</v>
-      </c>
-      <c r="C296" s="2">
-        <v>353191884124</v>
+        <v>353.38</v>
+      </c>
+      <c r="C296" s="3">
+        <v>342532996442</v>
       </c>
       <c r="D296" s="3">
         <v>5</v>
@@ -6067,10 +6067,10 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>138.18</v>
-      </c>
-      <c r="C297" s="2">
-        <v>16543810547</v>
+        <v>139.76</v>
+      </c>
+      <c r="C297" s="3">
+        <v>16231234279</v>
       </c>
       <c r="D297" s="3">
         <v>14</v>
@@ -6081,10 +6081,10 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>132.74</v>
-      </c>
-      <c r="C298" s="2">
-        <v>43212540105</v>
+        <v>136.3</v>
+      </c>
+      <c r="C298" s="3">
+        <v>42406091094</v>
       </c>
       <c r="D298" s="3">
         <v>14</v>
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>55.86</v>
-      </c>
-      <c r="C299" s="2">
-        <v>14521067630</v>
+        <v>53.82</v>
+      </c>
+      <c r="C299" s="3">
+        <v>13824463859</v>
       </c>
       <c r="D299" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,10 +6109,10 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>223.4</v>
-      </c>
-      <c r="C300" s="2">
-        <v>165147995236</v>
+        <v>221.66</v>
+      </c>
+      <c r="C300" s="3">
+        <v>165542880411</v>
       </c>
       <c r="D300" s="3">
         <v>8</v>
@@ -6123,10 +6123,10 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>161.65</v>
-      </c>
-      <c r="C301" s="2">
-        <v>43409312686</v>
+        <v>164.15</v>
+      </c>
+      <c r="C301" s="3">
+        <v>44422130131</v>
       </c>
       <c r="D301" s="3">
         <v>12</v>
@@ -6137,10 +6137,10 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>189.14</v>
-      </c>
-      <c r="C302" s="2">
-        <v>29038437245</v>
+        <v>181.8</v>
+      </c>
+      <c r="C302" s="3">
+        <v>28991975833</v>
       </c>
       <c r="D302" s="3">
         <v>10</v>
@@ -6151,10 +6151,10 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>283.81</v>
-      </c>
-      <c r="C303" s="2">
-        <v>54287859390</v>
+        <v>284.68</v>
+      </c>
+      <c r="C303" s="3">
+        <v>52976998342</v>
       </c>
       <c r="D303" s="3">
         <v>6</v>
@@ -6165,13 +6165,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>55.62</v>
-      </c>
-      <c r="C304" s="2">
-        <v>79294920834</v>
+        <v>56.82</v>
+      </c>
+      <c r="C304" s="3">
+        <v>78589879654</v>
       </c>
       <c r="D304" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6179,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>122.58</v>
-      </c>
-      <c r="C305" s="2">
-        <v>166906111033</v>
+        <v>124.59</v>
+      </c>
+      <c r="C305" s="3">
+        <v>164678845045</v>
       </c>
       <c r="D305" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,10 +6193,10 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>56.8</v>
-      </c>
-      <c r="C306" s="2">
-        <v>51512560993</v>
+        <v>57.77</v>
+      </c>
+      <c r="C306" s="3">
+        <v>51916851879</v>
       </c>
       <c r="D306" s="3">
         <v>34</v>
@@ -6207,13 +6207,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>37.6</v>
-      </c>
-      <c r="C307" s="2">
-        <v>18190635989</v>
+        <v>35.93</v>
+      </c>
+      <c r="C307" s="3">
+        <v>17679935234</v>
       </c>
       <c r="D307" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>176.02</v>
-      </c>
-      <c r="C308" s="2">
-        <v>12480419481</v>
+        <v>176.57</v>
+      </c>
+      <c r="C308" s="3">
+        <v>12694809995</v>
       </c>
       <c r="D308" s="3">
         <v>11</v>
@@ -6235,13 +6235,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>91.70999999999999</v>
-      </c>
-      <c r="C309" s="2">
-        <v>24692896467</v>
+        <v>88.33</v>
+      </c>
+      <c r="C309" s="3">
+        <v>23650744768</v>
       </c>
       <c r="D309" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6249,10 +6249,10 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>567.75</v>
-      </c>
-      <c r="C310" s="2">
-        <v>20980479835</v>
+        <v>558.96</v>
+      </c>
+      <c r="C310" s="3">
+        <v>21177495667</v>
       </c>
       <c r="D310" s="3">
         <v>3</v>
@@ -6263,10 +6263,10 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>340.71</v>
-      </c>
-      <c r="C311" s="2">
-        <v>20616086133</v>
+        <v>337.8</v>
+      </c>
+      <c r="C311" s="3">
+        <v>20396598691</v>
       </c>
       <c r="D311" s="3">
         <v>5</v>
@@ -6277,13 +6277,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>116.2</v>
-      </c>
-      <c r="C312" s="2">
-        <v>57582979414</v>
+        <v>118.2</v>
+      </c>
+      <c r="C312" s="3">
+        <v>59693994855</v>
       </c>
       <c r="D312" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6291,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>183.2</v>
-      </c>
-      <c r="C313" s="2">
-        <v>107477389952</v>
+        <v>179.76</v>
+      </c>
+      <c r="C313" s="3">
+        <v>105366495185</v>
       </c>
       <c r="D313" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>95.44</v>
-      </c>
-      <c r="C314" s="2">
-        <v>49569916245</v>
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C314" s="3">
+        <v>49637807482</v>
       </c>
       <c r="D314" s="3">
         <v>20</v>
@@ -6319,10 +6319,10 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>44.1</v>
-      </c>
-      <c r="C315" s="2">
-        <v>83604180375</v>
+        <v>44.76</v>
+      </c>
+      <c r="C315" s="3">
+        <v>83196853354</v>
       </c>
       <c r="D315" s="3">
         <v>44</v>
@@ -6333,13 +6333,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>29.4</v>
-      </c>
-      <c r="C316" s="2">
-        <v>11543338129</v>
+        <v>31.66</v>
+      </c>
+      <c r="C316" s="3">
+        <v>11768356517</v>
       </c>
       <c r="D316" s="3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6347,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>50.7</v>
-      </c>
-      <c r="C317" s="2">
-        <v>32999454467</v>
+        <v>52.25</v>
+      </c>
+      <c r="C317" s="3">
+        <v>34178874760</v>
       </c>
       <c r="D317" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,13 +6361,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>77</v>
-      </c>
-      <c r="C318" s="2">
-        <v>199032847211</v>
+        <v>75.13</v>
+      </c>
+      <c r="C318" s="3">
+        <v>193506583270</v>
       </c>
       <c r="D318" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6375,13 +6375,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>9.32</v>
-      </c>
-      <c r="C319" s="2">
-        <v>7372468587</v>
+        <v>9.66</v>
+      </c>
+      <c r="C319" s="3">
+        <v>7598056172</v>
       </c>
       <c r="D319" s="3">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>76.95999999999999</v>
-      </c>
-      <c r="C320" s="2">
-        <v>140015076869</v>
+        <v>78.36</v>
+      </c>
+      <c r="C320" s="3">
+        <v>141611552813</v>
       </c>
       <c r="D320" s="3">
         <v>25</v>
@@ -6403,10 +6403,10 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>451.56</v>
-      </c>
-      <c r="C321" s="2">
-        <v>36688568516</v>
+        <v>462.09</v>
+      </c>
+      <c r="C321" s="3">
+        <v>37921365253</v>
       </c>
       <c r="D321" s="3">
         <v>4</v>
@@ -6417,10 +6417,10 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>247.71</v>
-      </c>
-      <c r="C322" s="2">
-        <v>1852490633229</v>
+        <v>254.4</v>
+      </c>
+      <c r="C322" s="3">
+        <v>1900318779109</v>
       </c>
       <c r="D322" s="3">
         <v>7</v>
@@ -6431,10 +6431,10 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>183.61</v>
-      </c>
-      <c r="C323" s="2">
-        <v>32013225110</v>
+        <v>188.78</v>
+      </c>
+      <c r="C323" s="3">
+        <v>31450701028</v>
       </c>
       <c r="D323" s="3">
         <v>10</v>
@@ -6445,13 +6445,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>146.19</v>
-      </c>
-      <c r="C324" s="2">
-        <v>18945408687</v>
+        <v>155.22</v>
+      </c>
+      <c r="C324" s="3">
+        <v>19816632754</v>
       </c>
       <c r="D324" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1272.08</v>
-      </c>
-      <c r="C325" s="2">
-        <v>29676753576</v>
+        <v>1193.08</v>
+      </c>
+      <c r="C325" s="3">
+        <v>28377941079</v>
       </c>
       <c r="D325" s="3">
         <v>1</v>
@@ -6473,10 +6473,10 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>88.48999999999999</v>
-      </c>
-      <c r="C326" s="2">
-        <v>99218798733</v>
+        <v>88.56</v>
+      </c>
+      <c r="C326" s="3">
+        <v>100188475775</v>
       </c>
       <c r="D326" s="3">
         <v>22</v>
@@ -6487,13 +6487,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>99.37</v>
-      </c>
-      <c r="C327" s="2">
-        <v>26694874131</v>
+        <v>97.04000000000001</v>
+      </c>
+      <c r="C327" s="3">
+        <v>26515536196</v>
       </c>
       <c r="D327" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.327</v>
-      </c>
-      <c r="C328" s="2">
-        <v>8954904390</v>
+        <v>16.296</v>
+      </c>
+      <c r="C328" s="3">
+        <v>8948763720</v>
       </c>
       <c r="D328" s="3">
         <v>121</v>
@@ -6515,13 +6515,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.84</v>
-      </c>
-      <c r="C329" s="2">
-        <v>4234606431</v>
+        <v>8.779999999999999</v>
+      </c>
+      <c r="C329" s="3">
+        <v>4230183935</v>
       </c>
       <c r="D329" s="3">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6529,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>24.01</v>
-      </c>
-      <c r="C330" s="2">
-        <v>5274007746</v>
+        <v>25.69</v>
+      </c>
+      <c r="C330" s="3">
+        <v>5564870585</v>
       </c>
       <c r="D330" s="3">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>148.17</v>
-      </c>
-      <c r="C331" s="2">
-        <v>24263977852</v>
+        <v>145.77</v>
+      </c>
+      <c r="C331" s="3">
+        <v>24580886344</v>
       </c>
       <c r="D331" s="3">
         <v>13</v>
@@ -6557,13 +6557,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="C332" s="2">
-        <v>170827635155</v>
+        <v>82.56</v>
+      </c>
+      <c r="C332" s="3">
+        <v>160312003925</v>
       </c>
       <c r="D332" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6571,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>60.24</v>
-      </c>
-      <c r="C333" s="2">
-        <v>47484848821</v>
+        <v>59.5</v>
+      </c>
+      <c r="C333" s="3">
+        <v>47104037836</v>
       </c>
       <c r="D333" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,10 +6585,10 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>562.76</v>
-      </c>
-      <c r="C334" s="2">
-        <v>251763853179</v>
+        <v>565.25</v>
+      </c>
+      <c r="C334" s="3">
+        <v>257575593179</v>
       </c>
       <c r="D334" s="3">
         <v>3</v>
@@ -6599,13 +6599,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>23.38</v>
-      </c>
-      <c r="C335" s="2">
-        <v>8705822425</v>
+        <v>23.04</v>
+      </c>
+      <c r="C335" s="3">
+        <v>8856885223</v>
       </c>
       <c r="D335" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,10 +6613,10 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>144.57</v>
-      </c>
-      <c r="C336" s="2">
-        <v>227063208394</v>
+        <v>142.03</v>
+      </c>
+      <c r="C336" s="3">
+        <v>231005840908</v>
       </c>
       <c r="D336" s="3">
         <v>13</v>
@@ -6627,13 +6627,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>22.13</v>
-      </c>
-      <c r="C337" s="2">
-        <v>12714823777</v>
+        <v>21.66</v>
+      </c>
+      <c r="C337" s="3">
+        <v>12827692057</v>
       </c>
       <c r="D337" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6641,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>23.91</v>
-      </c>
-      <c r="C338" s="2">
-        <v>8635437996</v>
+        <v>24.43</v>
+      </c>
+      <c r="C338" s="3">
+        <v>8670304302</v>
       </c>
       <c r="D338" s="3">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,10 +6655,10 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>299.2</v>
-      </c>
-      <c r="C339" s="2">
-        <v>50376296853</v>
+        <v>301.47</v>
+      </c>
+      <c r="C339" s="3">
+        <v>48933530625</v>
       </c>
       <c r="D339" s="3">
         <v>6</v>
@@ -6669,13 +6669,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>14.36</v>
-      </c>
-      <c r="C340" s="2">
-        <v>5653176987</v>
+        <v>14.8</v>
+      </c>
+      <c r="C340" s="3">
+        <v>5870326397</v>
       </c>
       <c r="D340" s="3">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,10 +6683,10 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>619.54</v>
-      </c>
-      <c r="C341" s="2">
-        <v>115566646948</v>
+        <v>595.74</v>
+      </c>
+      <c r="C341" s="3">
+        <v>116303478937</v>
       </c>
       <c r="D341" s="3">
         <v>3</v>
@@ -6697,13 +6697,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>45.07</v>
-      </c>
-      <c r="C342" s="2">
-        <v>10681357565</v>
+        <v>42.46</v>
+      </c>
+      <c r="C342" s="3">
+        <v>10268856228</v>
       </c>
       <c r="D342" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,10 +6711,10 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>258.02</v>
-      </c>
-      <c r="C343" s="2">
-        <v>64978421912</v>
+        <v>258.4</v>
+      </c>
+      <c r="C343" s="3">
+        <v>65127615676</v>
       </c>
       <c r="D343" s="3">
         <v>7</v>
@@ -6725,10 +6725,10 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>73.29000000000001</v>
-      </c>
-      <c r="C344" s="2">
-        <v>16042232332</v>
+        <v>71.06999999999999</v>
+      </c>
+      <c r="C344" s="3">
+        <v>16128607987</v>
       </c>
       <c r="D344" s="3">
         <v>27</v>
@@ -6739,10 +6739,10 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>99.06</v>
-      </c>
-      <c r="C345" s="2">
-        <v>21408569659</v>
+        <v>101.12</v>
+      </c>
+      <c r="C345" s="3">
+        <v>20910932461</v>
       </c>
       <c r="D345" s="3">
         <v>19</v>
@@ -6753,10 +6753,10 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>58.01</v>
-      </c>
-      <c r="C346" s="2">
-        <v>17593654904</v>
+        <v>57.71</v>
+      </c>
+      <c r="C346" s="3">
+        <v>17907964925</v>
       </c>
       <c r="D346" s="3">
         <v>34</v>
@@ -6767,10 +6767,10 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>627.64</v>
-      </c>
-      <c r="C347" s="2">
-        <v>379730204566</v>
+        <v>624.23</v>
+      </c>
+      <c r="C347" s="3">
+        <v>392026894198</v>
       </c>
       <c r="D347" s="3">
         <v>3</v>
@@ -6781,10 +6781,10 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4720.93</v>
-      </c>
-      <c r="C348" s="2">
-        <v>18197613865</v>
+        <v>4683</v>
+      </c>
+      <c r="C348" s="3">
+        <v>17677738884</v>
       </c>
       <c r="D348" s="3">
         <v>0</v>
@@ -6795,13 +6795,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>24.4</v>
-      </c>
-      <c r="C349" s="2">
-        <v>10435708140</v>
+        <v>24.68</v>
+      </c>
+      <c r="C349" s="3">
+        <v>10188981145</v>
       </c>
       <c r="D349" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6809,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>24.5</v>
-      </c>
-      <c r="C350" s="2">
-        <v>14418182397</v>
+        <v>23.35</v>
+      </c>
+      <c r="C350" s="3">
+        <v>14457490958</v>
       </c>
       <c r="D350" s="3">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,10 +6823,10 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>24.7</v>
-      </c>
-      <c r="C351" s="2">
-        <v>14055980573</v>
+        <v>24.534</v>
+      </c>
+      <c r="C351" s="3">
+        <v>14402677345</v>
       </c>
       <c r="D351" s="3">
         <v>80</v>
@@ -6837,13 +6837,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>63.37</v>
-      </c>
-      <c r="C352" s="2">
-        <v>23878274460</v>
+        <v>61.8</v>
+      </c>
+      <c r="C352" s="3">
+        <v>23918794549</v>
       </c>
       <c r="D352" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,10 +6851,10 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>213.64</v>
-      </c>
-      <c r="C353" s="2">
-        <v>26034836369</v>
+        <v>215.06</v>
+      </c>
+      <c r="C353" s="3">
+        <v>25537650871</v>
       </c>
       <c r="D353" s="3">
         <v>9</v>
@@ -6865,13 +6865,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>46.43</v>
-      </c>
-      <c r="C354" s="2">
-        <v>20293983523</v>
+        <v>48.1</v>
+      </c>
+      <c r="C354" s="3">
+        <v>20832102154</v>
       </c>
       <c r="D354" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,10 +6879,10 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>68.06999999999999</v>
-      </c>
-      <c r="C355" s="2">
-        <v>14359035995</v>
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C355" s="3">
+        <v>14322889545</v>
       </c>
       <c r="D355" s="3">
         <v>29</v>
@@ -6893,13 +6893,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="C356" s="2">
-        <v>194932475814</v>
+        <v>63.77</v>
+      </c>
+      <c r="C356" s="3">
+        <v>185717858459</v>
       </c>
       <c r="D356" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>434.99</v>
-      </c>
-      <c r="C357" s="2">
-        <v>31609809477</v>
+        <v>453.5</v>
+      </c>
+      <c r="C357" s="3">
+        <v>32745824379</v>
       </c>
       <c r="D357" s="3">
         <v>4</v>
@@ -6921,10 +6921,10 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>65.8</v>
-      </c>
-      <c r="C358" s="2">
-        <v>28624356558</v>
+        <v>65.69</v>
+      </c>
+      <c r="C358" s="3">
+        <v>28514527057</v>
       </c>
       <c r="D358" s="3">
         <v>30</v>
@@ -6935,13 +6935,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>26.27</v>
-      </c>
-      <c r="C359" s="2">
-        <v>24581220020</v>
+        <v>27.77</v>
+      </c>
+      <c r="C359" s="3">
+        <v>25362522836</v>
       </c>
       <c r="D359" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>428.78</v>
-      </c>
-      <c r="C360" s="2">
-        <v>25271664485</v>
+        <v>399.15</v>
+      </c>
+      <c r="C360" s="3">
+        <v>23848718365</v>
       </c>
       <c r="D360" s="3">
         <v>4</v>
@@ -6963,10 +6963,10 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="C361" s="2">
-        <v>32584203636</v>
+        <v>92.40000000000001</v>
+      </c>
+      <c r="C361" s="3">
+        <v>32476576106</v>
       </c>
       <c r="D361" s="3">
         <v>21</v>
@@ -6977,13 +6977,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="C362" s="2">
-        <v>6483293531</v>
+        <v>15.99</v>
+      </c>
+      <c r="C362" s="3">
+        <v>6804376254</v>
       </c>
       <c r="D362" s="3">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6991,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>99</v>
-      </c>
-      <c r="C363" s="2">
-        <v>35485963818</v>
+        <v>101.38</v>
+      </c>
+      <c r="C363" s="3">
+        <v>33857644680</v>
       </c>
       <c r="D363" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7005,13 +7005,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>32.34</v>
-      </c>
-      <c r="C364" s="2">
-        <v>16875520894</v>
+        <v>31.38</v>
+      </c>
+      <c r="C364" s="3">
+        <v>16263968479</v>
       </c>
       <c r="D364" s="3">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,10 +7019,10 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>61.06</v>
-      </c>
-      <c r="C365" s="2">
-        <v>30168173090</v>
+        <v>60.81</v>
+      </c>
+      <c r="C365" s="3">
+        <v>29866555323</v>
       </c>
       <c r="D365" s="3">
         <v>32</v>
@@ -7033,10 +7033,10 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>136.42</v>
-      </c>
-      <c r="C366" s="2">
-        <v>186475880734</v>
+        <v>139.15</v>
+      </c>
+      <c r="C366" s="3">
+        <v>191176702156</v>
       </c>
       <c r="D366" s="3">
         <v>14</v>
@@ -7047,13 +7047,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>35.42</v>
-      </c>
-      <c r="C367" s="2">
-        <v>200867845677</v>
+        <v>36.36</v>
+      </c>
+      <c r="C367" s="3">
+        <v>194508804020</v>
       </c>
       <c r="D367" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7061,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>56.7</v>
-      </c>
-      <c r="C368" s="2">
-        <v>14893538615</v>
+        <v>54.97</v>
+      </c>
+      <c r="C368" s="3">
+        <v>15096507320</v>
       </c>
       <c r="D368" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,10 +7075,10 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>130.13</v>
-      </c>
-      <c r="C369" s="2">
-        <v>315676151125</v>
+        <v>131.82</v>
+      </c>
+      <c r="C369" s="3">
+        <v>320549073506</v>
       </c>
       <c r="D369" s="3">
         <v>15</v>
@@ -7089,13 +7089,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>88.44</v>
-      </c>
-      <c r="C370" s="2">
-        <v>51029055456</v>
+        <v>85.70999999999999</v>
+      </c>
+      <c r="C370" s="3">
+        <v>51747042210</v>
       </c>
       <c r="D370" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>290.05</v>
-      </c>
-      <c r="C371" s="2">
-        <v>35658036788</v>
+        <v>284.44</v>
+      </c>
+      <c r="C371" s="3">
+        <v>36800636411</v>
       </c>
       <c r="D371" s="3">
         <v>6</v>
@@ -7117,13 +7117,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>50.08</v>
-      </c>
-      <c r="C372" s="2">
-        <v>13074139107</v>
+        <v>47.58</v>
+      </c>
+      <c r="C372" s="3">
+        <v>12550770365</v>
       </c>
       <c r="D372" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,10 +7131,10 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>134.5</v>
-      </c>
-      <c r="C373" s="2">
-        <v>12675809106</v>
+        <v>133.17</v>
+      </c>
+      <c r="C373" s="3">
+        <v>13026708813</v>
       </c>
       <c r="D373" s="3">
         <v>14</v>
@@ -7145,13 +7145,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>154.05</v>
-      </c>
-      <c r="C374" s="2">
-        <v>17366457029</v>
+        <v>147.47</v>
+      </c>
+      <c r="C374" s="3">
+        <v>16993760763</v>
       </c>
       <c r="D374" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,10 +7159,10 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>109.99</v>
-      </c>
-      <c r="C375" s="2">
-        <v>83365812064</v>
+        <v>108.52</v>
+      </c>
+      <c r="C375" s="3">
+        <v>80545701783</v>
       </c>
       <c r="D375" s="3">
         <v>18</v>
@@ -7173,10 +7173,10 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>87.59</v>
-      </c>
-      <c r="C376" s="2">
-        <v>137314620247</v>
+        <v>88</v>
+      </c>
+      <c r="C376" s="3">
+        <v>133952799187</v>
       </c>
       <c r="D376" s="3">
         <v>22</v>
@@ -7187,13 +7187,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>162.72</v>
-      </c>
-      <c r="C377" s="2">
-        <v>70499045853</v>
+        <v>175.1</v>
+      </c>
+      <c r="C377" s="3">
+        <v>72579188347</v>
       </c>
       <c r="D377" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7201,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>53.77</v>
-      </c>
-      <c r="C378" s="2">
-        <v>9088862987</v>
+        <v>57.15</v>
+      </c>
+      <c r="C378" s="3">
+        <v>9452934852</v>
       </c>
       <c r="D378" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7215,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C379" s="2">
-        <v>8816036092</v>
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C379" s="3">
+        <v>8777950780</v>
       </c>
       <c r="D379" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7229,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>139.02</v>
-      </c>
-      <c r="C380" s="2">
-        <v>33012158104</v>
+        <v>144.18</v>
+      </c>
+      <c r="C380" s="3">
+        <v>33722723575</v>
       </c>
       <c r="D380" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7243,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>29.07</v>
-      </c>
-      <c r="C381" s="2">
-        <v>22118923501</v>
+        <v>28.03</v>
+      </c>
+      <c r="C381" s="3">
+        <v>22296746426</v>
       </c>
       <c r="D381" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7257,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>46.54</v>
-      </c>
-      <c r="C382" s="2">
-        <v>6258994929</v>
+        <v>44.99</v>
+      </c>
+      <c r="C382" s="3">
+        <v>6109866711</v>
       </c>
       <c r="D382" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,10 +7271,10 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>84.20999999999999</v>
-      </c>
-      <c r="C383" s="2">
-        <v>32432857768</v>
+        <v>84.92</v>
+      </c>
+      <c r="C383" s="3">
+        <v>33088727720</v>
       </c>
       <c r="D383" s="3">
         <v>23</v>
@@ -7285,10 +7285,10 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>243.04</v>
-      </c>
-      <c r="C384" s="2">
-        <v>40567214077</v>
+        <v>241.36</v>
+      </c>
+      <c r="C384" s="3">
+        <v>41240084105</v>
       </c>
       <c r="D384" s="3">
         <v>8</v>
@@ -7299,13 +7299,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>80.95</v>
-      </c>
-      <c r="C385" s="2">
-        <v>34104716140</v>
+        <v>82.73999999999999</v>
+      </c>
+      <c r="C385" s="3">
+        <v>36042977833</v>
       </c>
       <c r="D385" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,10 +7313,10 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>99.45999999999999</v>
-      </c>
-      <c r="C386" s="2">
-        <v>6840002899</v>
+        <v>101.9</v>
+      </c>
+      <c r="C386" s="3">
+        <v>6939331797</v>
       </c>
       <c r="D386" s="3">
         <v>19</v>
@@ -7327,10 +7327,10 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>79.91</v>
-      </c>
-      <c r="C387" s="2">
-        <v>11227074138</v>
+        <v>81.31999999999999</v>
+      </c>
+      <c r="C387" s="3">
+        <v>10984388417</v>
       </c>
       <c r="D387" s="3">
         <v>24</v>
@@ -7341,10 +7341,10 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>134.1</v>
-      </c>
-      <c r="C388" s="2">
-        <v>22832946420</v>
+        <v>140.44</v>
+      </c>
+      <c r="C388" s="3">
+        <v>22867977460</v>
       </c>
       <c r="D388" s="3">
         <v>14</v>
@@ -7355,10 +7355,10 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>305.14</v>
-      </c>
-      <c r="C389" s="2">
-        <v>363527095167</v>
+        <v>309.11</v>
+      </c>
+      <c r="C389" s="3">
+        <v>369176894359</v>
       </c>
       <c r="D389" s="3">
         <v>6</v>
@@ -7369,10 +7369,10 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>152.02</v>
-      </c>
-      <c r="C390" s="2">
-        <v>174373209115</v>
+        <v>147.87</v>
+      </c>
+      <c r="C390" s="3">
+        <v>167609628158</v>
       </c>
       <c r="D390" s="3">
         <v>13</v>
@@ -7383,13 +7383,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>180</v>
-      </c>
-      <c r="C391" s="2">
-        <v>20465759943</v>
+        <v>181.17</v>
+      </c>
+      <c r="C391" s="3">
+        <v>20603022247</v>
       </c>
       <c r="D391" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7397,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="C392" s="2">
-        <v>15383628504</v>
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C392" s="3">
+        <v>16902909325</v>
       </c>
       <c r="D392" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,13 +7411,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>252.11</v>
-      </c>
-      <c r="C393" s="2">
-        <v>9755828122</v>
+        <v>242.79</v>
+      </c>
+      <c r="C393" s="3">
+        <v>9872343109</v>
       </c>
       <c r="D393" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7425,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>52.95</v>
-      </c>
-      <c r="C394" s="2">
-        <v>8953306609</v>
+        <v>54.6</v>
+      </c>
+      <c r="C394" s="3">
+        <v>9048208978</v>
       </c>
       <c r="D394" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,10 +7439,10 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>504.32</v>
-      </c>
-      <c r="C395" s="2">
-        <v>51964378834</v>
+        <v>496.62</v>
+      </c>
+      <c r="C395" s="3">
+        <v>51176122017</v>
       </c>
       <c r="D395" s="3">
         <v>3</v>
@@ -7453,13 +7453,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>19.58</v>
-      </c>
-      <c r="C396" s="2">
-        <v>19400910637</v>
+        <v>20.71</v>
+      </c>
+      <c r="C396" s="3">
+        <v>20228596477</v>
       </c>
       <c r="D396" s="3">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7467,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>76.7</v>
-      </c>
-      <c r="C397" s="2">
-        <v>8505198063</v>
+        <v>75.05</v>
+      </c>
+      <c r="C397" s="3">
+        <v>8710497060</v>
       </c>
       <c r="D397" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,10 +7481,10 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>119.52</v>
-      </c>
-      <c r="C398" s="2">
-        <v>15734791040</v>
+        <v>122.39</v>
+      </c>
+      <c r="C398" s="3">
+        <v>16774737588</v>
       </c>
       <c r="D398" s="3">
         <v>16</v>
@@ -7495,10 +7495,10 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>115.2</v>
-      </c>
-      <c r="C399" s="2">
-        <v>8167941644</v>
+        <v>112.49</v>
+      </c>
+      <c r="C399" s="3">
+        <v>8395932741</v>
       </c>
       <c r="D399" s="3">
         <v>17</v>
@@ -7509,10 +7509,10 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>208.23</v>
-      </c>
-      <c r="C400" s="2">
-        <v>29696747624</v>
+        <v>201.2</v>
+      </c>
+      <c r="C400" s="3">
+        <v>28940161051</v>
       </c>
       <c r="D400" s="3">
         <v>9</v>
@@ -7523,10 +7523,10 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>259.9</v>
-      </c>
-      <c r="C401" s="2">
-        <v>29700221970</v>
+        <v>257.37</v>
+      </c>
+      <c r="C401" s="3">
+        <v>29275883554</v>
       </c>
       <c r="D401" s="3">
         <v>7</v>
@@ -7537,13 +7537,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>39.12</v>
-      </c>
-      <c r="C402" s="2">
-        <v>19099223445</v>
+        <v>38.18</v>
+      </c>
+      <c r="C402" s="3">
+        <v>18702353627</v>
       </c>
       <c r="D402" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,10 +7551,10 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>399.6</v>
-      </c>
-      <c r="C403" s="2">
-        <v>43589522044</v>
+        <v>398.8</v>
+      </c>
+      <c r="C403" s="3">
+        <v>40880026423</v>
       </c>
       <c r="D403" s="3">
         <v>4</v>
@@ -7565,13 +7565,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>122.43</v>
-      </c>
-      <c r="C404" s="2">
-        <v>43851799896</v>
+        <v>124.86</v>
+      </c>
+      <c r="C404" s="3">
+        <v>43203679220</v>
       </c>
       <c r="D404" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,10 +7579,10 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>94.64</v>
-      </c>
-      <c r="C405" s="2">
-        <v>30316967018</v>
+        <v>94.69</v>
+      </c>
+      <c r="C405" s="3">
+        <v>30018604288</v>
       </c>
       <c r="D405" s="3">
         <v>20</v>
@@ -7593,13 +7593,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="C406" s="2">
-        <v>113246048896</v>
+        <v>73.23</v>
+      </c>
+      <c r="C406" s="3">
+        <v>112020699921</v>
       </c>
       <c r="D406" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,10 +7607,10 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>275.68</v>
-      </c>
-      <c r="C407" s="2">
-        <v>29747538363</v>
+        <v>265.52</v>
+      </c>
+      <c r="C407" s="3">
+        <v>29900413531</v>
       </c>
       <c r="D407" s="3">
         <v>7</v>
@@ -7621,10 +7621,10 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>106.4</v>
-      </c>
-      <c r="C408" s="2">
-        <v>129421261221</v>
+        <v>106.59</v>
+      </c>
+      <c r="C408" s="3">
+        <v>128115381439</v>
       </c>
       <c r="D408" s="3">
         <v>18</v>
@@ -7635,13 +7635,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>59.69</v>
-      </c>
-      <c r="C409" s="2">
-        <v>110068915861</v>
+        <v>63</v>
+      </c>
+      <c r="C409" s="3">
+        <v>116828897010</v>
       </c>
       <c r="D409" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7649,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>44.8</v>
-      </c>
-      <c r="C410" s="2">
-        <v>7174709960</v>
+        <v>43.4</v>
+      </c>
+      <c r="C410" s="3">
+        <v>6736573338</v>
       </c>
       <c r="D410" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,10 +7663,10 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>736.46</v>
-      </c>
-      <c r="C411" s="2">
-        <v>66598105013</v>
+        <v>742.03</v>
+      </c>
+      <c r="C411" s="3">
+        <v>67431999072</v>
       </c>
       <c r="D411" s="3">
         <v>2</v>
@@ -7677,10 +7677,10 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>511.7</v>
-      </c>
-      <c r="C412" s="2">
-        <v>27248306640</v>
+        <v>541.87</v>
+      </c>
+      <c r="C412" s="3">
+        <v>28185618273</v>
       </c>
       <c r="D412" s="3">
         <v>3</v>
@@ -7691,10 +7691,10 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>120.2</v>
-      </c>
-      <c r="C413" s="2">
-        <v>13551119863</v>
+        <v>118.01</v>
+      </c>
+      <c r="C413" s="3">
+        <v>12908022962</v>
       </c>
       <c r="D413" s="3">
         <v>16</v>
@@ -7705,13 +7705,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>28.09</v>
-      </c>
-      <c r="C414" s="2">
-        <v>38942979542</v>
+        <v>27.24</v>
+      </c>
+      <c r="C414" s="3">
+        <v>37665995019</v>
       </c>
       <c r="D414" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7719,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>66.2</v>
-      </c>
-      <c r="C415" s="2">
-        <v>4731036820</v>
+        <v>62.9</v>
+      </c>
+      <c r="C415" s="3">
+        <v>4571954210</v>
       </c>
       <c r="D415" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,10 +7733,10 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>192.32</v>
-      </c>
-      <c r="C416" s="2">
-        <v>10308259368</v>
+        <v>197.62</v>
+      </c>
+      <c r="C416" s="3">
+        <v>10690317829</v>
       </c>
       <c r="D416" s="3">
         <v>10</v>
@@ -7747,10 +7747,10 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>295.05</v>
-      </c>
-      <c r="C417" s="2">
-        <v>45153451458</v>
+        <v>293.27</v>
+      </c>
+      <c r="C417" s="3">
+        <v>45950337526</v>
       </c>
       <c r="D417" s="3">
         <v>6</v>
@@ -7761,13 +7761,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>62.7</v>
-      </c>
-      <c r="C418" s="2">
-        <v>65099407204</v>
+        <v>61.2</v>
+      </c>
+      <c r="C418" s="3">
+        <v>63836245945</v>
       </c>
       <c r="D418" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,10 +7775,10 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>110.99</v>
-      </c>
-      <c r="C419" s="2">
-        <v>36992079633</v>
+        <v>113.05</v>
+      </c>
+      <c r="C419" s="3">
+        <v>36638132466</v>
       </c>
       <c r="D419" s="3">
         <v>17</v>
@@ -7789,10 +7789,10 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>340.25</v>
-      </c>
-      <c r="C420" s="2">
-        <v>82214856889</v>
+        <v>339.41</v>
+      </c>
+      <c r="C420" s="3">
+        <v>85178638945</v>
       </c>
       <c r="D420" s="3">
         <v>5</v>
@@ -7803,10 +7803,10 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>125.7</v>
-      </c>
-      <c r="C421" s="2">
-        <v>36569359153</v>
+        <v>128.36</v>
+      </c>
+      <c r="C421" s="3">
+        <v>37161832356</v>
       </c>
       <c r="D421" s="3">
         <v>15</v>
@@ -7817,10 +7817,10 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>185</v>
-      </c>
-      <c r="C422" s="2">
-        <v>15680378609</v>
+        <v>189.3</v>
+      </c>
+      <c r="C422" s="3">
+        <v>16103696470</v>
       </c>
       <c r="D422" s="3">
         <v>10</v>
@@ -7831,13 +7831,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>75.8</v>
-      </c>
-      <c r="C423" s="2">
-        <v>26234484521</v>
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C423" s="3">
+        <v>27568562942</v>
       </c>
       <c r="D423" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7845,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>72.73</v>
-      </c>
-      <c r="C424" s="2">
-        <v>17266859441</v>
+        <v>73.44</v>
+      </c>
+      <c r="C424" s="3">
+        <v>17396823137</v>
       </c>
       <c r="D424" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,10 +7859,10 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>242.41</v>
-      </c>
-      <c r="C425" s="2">
-        <v>47672715983</v>
+        <v>232</v>
+      </c>
+      <c r="C425" s="3">
+        <v>46938672140</v>
       </c>
       <c r="D425" s="3">
         <v>8</v>
@@ -7873,10 +7873,10 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>175.93</v>
-      </c>
-      <c r="C426" s="2">
-        <v>29281896331</v>
+        <v>176.3</v>
+      </c>
+      <c r="C426" s="3">
+        <v>28328108347</v>
       </c>
       <c r="D426" s="3">
         <v>11</v>
@@ -7887,10 +7887,10 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>194.3</v>
-      </c>
-      <c r="C427" s="2">
-        <v>32690085904</v>
+        <v>195.77</v>
+      </c>
+      <c r="C427" s="3">
+        <v>33090991396</v>
       </c>
       <c r="D427" s="3">
         <v>10</v>
@@ -7901,13 +7901,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>37.35</v>
-      </c>
-      <c r="C428" s="2">
-        <v>22466629000</v>
+        <v>38.5</v>
+      </c>
+      <c r="C428" s="3">
+        <v>22635251089</v>
       </c>
       <c r="D428" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,10 +7915,10 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>256.15</v>
-      </c>
-      <c r="C429" s="2">
-        <v>94584952192</v>
+        <v>259.45</v>
+      </c>
+      <c r="C429" s="3">
+        <v>97362970137</v>
       </c>
       <c r="D429" s="3">
         <v>7</v>
@@ -7929,13 +7929,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>77.58</v>
-      </c>
-      <c r="C430" s="2">
-        <v>40386161743</v>
+        <v>79.84999999999999</v>
+      </c>
+      <c r="C430" s="3">
+        <v>38991121946</v>
       </c>
       <c r="D430" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7943,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="C431" s="2">
-        <v>205945392856</v>
+        <v>30.25</v>
+      </c>
+      <c r="C431" s="3">
+        <v>209102020504</v>
       </c>
       <c r="D431" s="3">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7957,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>45.62</v>
-      </c>
-      <c r="C432" s="2">
-        <v>9088075527</v>
+        <v>46.6</v>
+      </c>
+      <c r="C432" s="3">
+        <v>9474095648</v>
       </c>
       <c r="D432" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,10 +7971,10 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>584.08</v>
-      </c>
-      <c r="C433" s="2">
-        <v>32148874221</v>
+        <v>595.1900000000001</v>
+      </c>
+      <c r="C433" s="3">
+        <v>31445686726</v>
       </c>
       <c r="D433" s="3">
         <v>3</v>
@@ -7985,13 +7985,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>393.34</v>
-      </c>
-      <c r="C434" s="2">
-        <v>14529871989</v>
+        <v>407.23</v>
+      </c>
+      <c r="C434" s="3">
+        <v>14699147650</v>
       </c>
       <c r="D434" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7999,10 +7999,10 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>133.09</v>
-      </c>
-      <c r="C435" s="2">
-        <v>44011387126</v>
+        <v>132.43</v>
+      </c>
+      <c r="C435" s="3">
+        <v>44752519212</v>
       </c>
       <c r="D435" s="3">
         <v>14</v>
@@ -8013,13 +8013,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>54.71</v>
-      </c>
-      <c r="C436" s="2">
-        <v>73056578452</v>
+        <v>56.57</v>
+      </c>
+      <c r="C436" s="3">
+        <v>75340162209</v>
       </c>
       <c r="D436" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,10 +8027,10 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>413.61</v>
-      </c>
-      <c r="C437" s="2">
-        <v>19611892392</v>
+        <v>414</v>
+      </c>
+      <c r="C437" s="3">
+        <v>19296155988</v>
       </c>
       <c r="D437" s="3">
         <v>4</v>
@@ -8041,13 +8041,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>197.14</v>
-      </c>
-      <c r="C438" s="2">
-        <v>98006989805</v>
+        <v>200.07</v>
+      </c>
+      <c r="C438" s="3">
+        <v>98600292339</v>
       </c>
       <c r="D438" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8055,10 +8055,10 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>136.86</v>
-      </c>
-      <c r="C439" s="2">
-        <v>16489247356</v>
+        <v>135.55</v>
+      </c>
+      <c r="C439" s="3">
+        <v>16359160117</v>
       </c>
       <c r="D439" s="3">
         <v>14</v>
@@ -8069,13 +8069,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>70</v>
-      </c>
-      <c r="C440" s="2">
-        <v>83682450965</v>
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C440" s="3">
+        <v>82336405435</v>
       </c>
       <c r="D440" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,10 +8083,10 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>521.5599999999999</v>
-      </c>
-      <c r="C441" s="2">
-        <v>206795388011</v>
+        <v>505.15</v>
+      </c>
+      <c r="C441" s="3">
+        <v>200955738075</v>
       </c>
       <c r="D441" s="3">
         <v>3</v>
@@ -8097,10 +8097,10 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>124.58</v>
-      </c>
-      <c r="C442" s="2">
-        <v>161102682800</v>
+        <v>124</v>
+      </c>
+      <c r="C442" s="3">
+        <v>154695778436</v>
       </c>
       <c r="D442" s="3">
         <v>15</v>
@@ -8111,13 +8111,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>40.03</v>
-      </c>
-      <c r="C443" s="2">
-        <v>10991912284</v>
+        <v>40.87</v>
+      </c>
+      <c r="C443" s="3">
+        <v>11284967952</v>
       </c>
       <c r="D443" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8125,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>163.86</v>
-      </c>
-      <c r="C444" s="2">
-        <v>39034915346</v>
+        <v>169.45</v>
+      </c>
+      <c r="C444" s="3">
+        <v>38236761099</v>
       </c>
       <c r="D444" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,10 +8139,10 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>152.05</v>
-      </c>
-      <c r="C445" s="2">
-        <v>37908232956</v>
+        <v>148.38</v>
+      </c>
+      <c r="C445" s="3">
+        <v>38792197495</v>
       </c>
       <c r="D445" s="3">
         <v>13</v>
@@ -8153,13 +8153,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>166.7</v>
-      </c>
-      <c r="C446" s="2">
-        <v>18766331317</v>
+        <v>163.73</v>
+      </c>
+      <c r="C446" s="3">
+        <v>18949771008</v>
       </c>
       <c r="D446" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8167,10 +8167,10 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>67.68000000000001</v>
-      </c>
-      <c r="C447" s="2">
-        <v>25011556150</v>
+        <v>67.03</v>
+      </c>
+      <c r="C447" s="3">
+        <v>24236512880</v>
       </c>
       <c r="D447" s="3">
         <v>29</v>
@@ -8181,10 +8181,10 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>156.44</v>
-      </c>
-      <c r="C448" s="2">
-        <v>37120747409</v>
+        <v>156.37</v>
+      </c>
+      <c r="C448" s="3">
+        <v>36114471219</v>
       </c>
       <c r="D448" s="3">
         <v>12</v>
@@ -8195,10 +8195,10 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>202.11</v>
-      </c>
-      <c r="C449" s="2">
-        <v>23908776766</v>
+        <v>198.9</v>
+      </c>
+      <c r="C449" s="3">
+        <v>22950642683</v>
       </c>
       <c r="D449" s="3">
         <v>9</v>
@@ -8209,13 +8209,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>73</v>
-      </c>
-      <c r="C450" s="2">
-        <v>59560825001</v>
+        <v>75.15000000000001</v>
+      </c>
+      <c r="C450" s="3">
+        <v>60461854588</v>
       </c>
       <c r="D450" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8223,10 +8223,10 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>183.7</v>
-      </c>
-      <c r="C451" s="2">
-        <v>168267865106</v>
+        <v>183.09</v>
+      </c>
+      <c r="C451" s="3">
+        <v>173815463418</v>
       </c>
       <c r="D451" s="3">
         <v>10</v>
@@ -8237,13 +8237,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>52.22</v>
-      </c>
-      <c r="C452" s="2">
-        <v>12014569252</v>
+        <v>51.9</v>
+      </c>
+      <c r="C452" s="3">
+        <v>11813834328</v>
       </c>
       <c r="D452" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,10 +8251,10 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>489.48</v>
-      </c>
-      <c r="C453" s="2">
-        <v>19492237599</v>
+        <v>494.62</v>
+      </c>
+      <c r="C453" s="3">
+        <v>19261623190</v>
       </c>
       <c r="D453" s="3">
         <v>4</v>
@@ -8265,13 +8265,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>19.14</v>
-      </c>
-      <c r="C454" s="2">
-        <v>9253712921</v>
+        <v>18.98</v>
+      </c>
+      <c r="C454" s="3">
+        <v>9158773164</v>
       </c>
       <c r="D454" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8279,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>23.24</v>
-      </c>
-      <c r="C455" s="2">
-        <v>9256622669</v>
+        <v>22.4</v>
+      </c>
+      <c r="C455" s="3">
+        <v>9376554075</v>
       </c>
       <c r="D455" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8293,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>44.978</v>
-      </c>
-      <c r="C456" s="2">
-        <v>13425512124</v>
+        <v>47.73</v>
+      </c>
+      <c r="C456" s="3">
+        <v>13813659297</v>
       </c>
       <c r="D456" s="3">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8307,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>44.43</v>
-      </c>
-      <c r="C457" s="2">
-        <v>12734383438</v>
+        <v>43.5</v>
+      </c>
+      <c r="C457" s="3">
+        <v>12856549947</v>
       </c>
       <c r="D457" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8321,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>129.43</v>
-      </c>
-      <c r="C458" s="2">
-        <v>11158353838</v>
+        <v>133.18</v>
+      </c>
+      <c r="C458" s="3">
+        <v>11338109487</v>
       </c>
       <c r="D458" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8335,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>328.25</v>
-      </c>
-      <c r="C459" s="2">
-        <v>18368321278</v>
+        <v>332.65</v>
+      </c>
+      <c r="C459" s="3">
+        <v>19316583039</v>
       </c>
       <c r="D459" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,13 +8349,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>341.26</v>
-      </c>
-      <c r="C460" s="2">
-        <v>315357854212</v>
+        <v>329.54</v>
+      </c>
+      <c r="C460" s="3">
+        <v>315282869498</v>
       </c>
       <c r="D460" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8363,13 +8363,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>24.92</v>
-      </c>
-      <c r="C461" s="2">
-        <v>5095607762</v>
+        <v>25.6</v>
+      </c>
+      <c r="C461" s="3">
+        <v>5450552753</v>
       </c>
       <c r="D461" s="3">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,10 +8377,10 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>219.12</v>
-      </c>
-      <c r="C462" s="2">
-        <v>149725393784</v>
+        <v>216.79</v>
+      </c>
+      <c r="C462" s="3">
+        <v>150451046116</v>
       </c>
       <c r="D462" s="3">
         <v>9</v>
@@ -8391,10 +8391,10 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>171.23</v>
-      </c>
-      <c r="C463" s="2">
-        <v>146255794201</v>
+        <v>168.33</v>
+      </c>
+      <c r="C463" s="3">
+        <v>141130069841</v>
       </c>
       <c r="D463" s="3">
         <v>11</v>
@@ -8405,10 +8405,10 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>293.56</v>
-      </c>
-      <c r="C464" s="2">
-        <v>21293811131</v>
+        <v>291.64</v>
+      </c>
+      <c r="C464" s="3">
+        <v>20974566575</v>
       </c>
       <c r="D464" s="3">
         <v>6</v>
@@ -8419,13 +8419,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>49.05</v>
-      </c>
-      <c r="C465" s="2">
-        <v>71911455267</v>
+        <v>50.74</v>
+      </c>
+      <c r="C465" s="3">
+        <v>73782130623</v>
       </c>
       <c r="D465" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,10 +8433,10 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>211.41</v>
-      </c>
-      <c r="C466" s="2">
-        <v>483344949055</v>
+        <v>215.4</v>
+      </c>
+      <c r="C466" s="3">
+        <v>475661398745</v>
       </c>
       <c r="D466" s="3">
         <v>9</v>
@@ -8447,10 +8447,10 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>184.89</v>
-      </c>
-      <c r="C467" s="2">
-        <v>16953687024</v>
+        <v>182.24</v>
+      </c>
+      <c r="C467" s="3">
+        <v>16820067657</v>
       </c>
       <c r="D467" s="3">
         <v>10</v>
@@ -8461,13 +8461,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>82.69</v>
-      </c>
-      <c r="C468" s="2">
-        <v>32264007531</v>
+        <v>81.68000000000001</v>
+      </c>
+      <c r="C468" s="3">
+        <v>32499313033</v>
       </c>
       <c r="D468" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8475,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>61.13</v>
-      </c>
-      <c r="C469" s="2">
-        <v>37131000017</v>
+        <v>59.48</v>
+      </c>
+      <c r="C469" s="3">
+        <v>37269317728</v>
       </c>
       <c r="D469" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,10 +8489,10 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>67.55</v>
-      </c>
-      <c r="C470" s="2">
-        <v>26981460958</v>
+        <v>67.73</v>
+      </c>
+      <c r="C470" s="3">
+        <v>28483004930</v>
       </c>
       <c r="D470" s="3">
         <v>29</v>
@@ -8503,13 +8503,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>164.5</v>
-      </c>
-      <c r="C471" s="2">
-        <v>21892990857</v>
+        <v>166.71</v>
+      </c>
+      <c r="C471" s="3">
+        <v>21599230504</v>
       </c>
       <c r="D471" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8517,13 +8517,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>39.78</v>
-      </c>
-      <c r="C472" s="2">
-        <v>7462373733</v>
+        <v>38.1</v>
+      </c>
+      <c r="C472" s="3">
+        <v>7187565431</v>
       </c>
       <c r="D472" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,10 +8531,10 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>196</v>
-      </c>
-      <c r="C473" s="2">
-        <v>31774028852</v>
+        <v>197.49</v>
+      </c>
+      <c r="C473" s="3">
+        <v>31802677572</v>
       </c>
       <c r="D473" s="3">
         <v>10</v>
@@ -8545,10 +8545,10 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>207.67</v>
-      </c>
-      <c r="C474" s="2">
-        <v>23412555800</v>
+        <v>200.47</v>
+      </c>
+      <c r="C474" s="3">
+        <v>23389831956</v>
       </c>
       <c r="D474" s="3">
         <v>9</v>
@@ -8559,10 +8559,10 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>217.36</v>
-      </c>
-      <c r="C475" s="2">
-        <v>57274576559</v>
+        <v>219.81</v>
+      </c>
+      <c r="C475" s="3">
+        <v>57338511949</v>
       </c>
       <c r="D475" s="3">
         <v>9</v>
@@ -8573,10 +8573,10 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>51.68</v>
-      </c>
-      <c r="C476" s="2">
-        <v>19448148440</v>
+        <v>52.07</v>
+      </c>
+      <c r="C476" s="3">
+        <v>19166073851</v>
       </c>
       <c r="D476" s="3">
         <v>38</v>
@@ -8587,13 +8587,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>55.4</v>
-      </c>
-      <c r="C477" s="2">
-        <v>227483144688</v>
+        <v>54.49</v>
+      </c>
+      <c r="C477" s="3">
+        <v>232821289446</v>
       </c>
       <c r="D477" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8601,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>80.58</v>
-      </c>
-      <c r="C478" s="2">
-        <v>15445725574</v>
+        <v>83.67</v>
+      </c>
+      <c r="C478" s="3">
+        <v>15633787697</v>
       </c>
       <c r="D478" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,10 +8615,10 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>286.24</v>
-      </c>
-      <c r="C479" s="2">
-        <v>18304101897</v>
+        <v>287.62</v>
+      </c>
+      <c r="C479" s="3">
+        <v>17585418641</v>
       </c>
       <c r="D479" s="3">
         <v>6</v>
@@ -8629,13 +8629,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>52.02</v>
-      </c>
-      <c r="C480" s="2">
-        <v>43573210022</v>
+        <v>50.14</v>
+      </c>
+      <c r="C480" s="3">
+        <v>43101857920</v>
       </c>
       <c r="D480" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,10 +8643,10 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>66.98</v>
-      </c>
-      <c r="C481" s="2">
-        <v>20345344081</v>
+        <v>67.8</v>
+      </c>
+      <c r="C481" s="3">
+        <v>21077649252</v>
       </c>
       <c r="D481" s="3">
         <v>29</v>
@@ -8657,13 +8657,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>85.15000000000001</v>
-      </c>
-      <c r="C482" s="2">
-        <v>26351267939</v>
+        <v>81.33</v>
+      </c>
+      <c r="C482" s="3">
+        <v>26417447267</v>
       </c>
       <c r="D482" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,10 +8671,10 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>68.93000000000001</v>
-      </c>
-      <c r="C483" s="2">
-        <v>28797292868</v>
+        <v>70.03</v>
+      </c>
+      <c r="C483" s="3">
+        <v>29143545245</v>
       </c>
       <c r="D483" s="3">
         <v>28</v>
@@ -8685,13 +8685,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>33.58</v>
-      </c>
-      <c r="C484" s="2">
-        <v>140050742837</v>
+        <v>35.92</v>
+      </c>
+      <c r="C484" s="3">
+        <v>144473758376</v>
       </c>
       <c r="D484" s="3">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8699,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>208.78</v>
-      </c>
-      <c r="C485" s="2">
-        <v>13002570142</v>
+        <v>197.15</v>
+      </c>
+      <c r="C485" s="3">
+        <v>12752839407</v>
       </c>
       <c r="D485" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,10 +8713,10 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>238.69</v>
-      </c>
-      <c r="C486" s="2">
-        <v>29490510678</v>
+        <v>230.34</v>
+      </c>
+      <c r="C486" s="3">
+        <v>30222917228</v>
       </c>
       <c r="D486" s="3">
         <v>8</v>
@@ -8727,13 +8727,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>118.64</v>
-      </c>
-      <c r="C487" s="2">
-        <v>49088454302</v>
+        <v>115.7</v>
+      </c>
+      <c r="C487" s="3">
+        <v>48707577159</v>
       </c>
       <c r="D487" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8741,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="C488" s="2">
-        <v>28375236522</v>
+        <v>24</v>
+      </c>
+      <c r="C488" s="3">
+        <v>29134661981</v>
       </c>
       <c r="D488" s="3">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,10 +8755,10 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>147.8</v>
-      </c>
-      <c r="C489" s="2">
-        <v>417764985003</v>
+        <v>148.47</v>
+      </c>
+      <c r="C489" s="3">
+        <v>423636952788</v>
       </c>
       <c r="D489" s="3">
         <v>13</v>
@@ -8769,13 +8769,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>70.79000000000001</v>
-      </c>
-      <c r="C490" s="2">
-        <v>12432288772</v>
+        <v>68.65000000000001</v>
+      </c>
+      <c r="C490" s="3">
+        <v>12380627151</v>
       </c>
       <c r="D490" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8783,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>45.23</v>
-      </c>
-      <c r="C491" s="2">
-        <v>11830162719</v>
+        <v>44.38</v>
+      </c>
+      <c r="C491" s="3">
+        <v>12050545251</v>
       </c>
       <c r="D491" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,10 +8797,10 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>303.1</v>
-      </c>
-      <c r="C492" s="2">
-        <v>22248742430</v>
+        <v>296.98</v>
+      </c>
+      <c r="C492" s="3">
+        <v>22843536009</v>
       </c>
       <c r="D492" s="3">
         <v>6</v>
@@ -8811,13 +8811,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>24.6</v>
-      </c>
-      <c r="C493" s="2">
-        <v>9988606522</v>
+        <v>24</v>
+      </c>
+      <c r="C493" s="3">
+        <v>9985057531</v>
       </c>
       <c r="D493" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,10 +8825,10 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>35.16</v>
-      </c>
-      <c r="C494" s="2">
-        <v>26442966243</v>
+        <v>35.08</v>
+      </c>
+      <c r="C494" s="3">
+        <v>26707275277</v>
       </c>
       <c r="D494" s="3">
         <v>56</v>
@@ -8839,13 +8839,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>118.81</v>
-      </c>
-      <c r="C495" s="2">
-        <v>12987928083</v>
+        <v>127.33</v>
+      </c>
+      <c r="C495" s="3">
+        <v>13351889920</v>
       </c>
       <c r="D495" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,10 +8853,10 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>62.05</v>
-      </c>
-      <c r="C496" s="2">
-        <v>32862775888</v>
+        <v>63.12</v>
+      </c>
+      <c r="C496" s="3">
+        <v>32718279244</v>
       </c>
       <c r="D496" s="3">
         <v>31</v>
@@ -8867,10 +8867,10 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>148.51</v>
-      </c>
-      <c r="C497" s="2">
-        <v>35788189604</v>
+        <v>147.24</v>
+      </c>
+      <c r="C497" s="3">
+        <v>36061407206</v>
       </c>
       <c r="D497" s="3">
         <v>13</v>
@@ -8881,13 +8881,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>50.63</v>
-      </c>
-      <c r="C498" s="2">
-        <v>215565753937</v>
+        <v>54.41</v>
+      </c>
+      <c r="C498" s="3">
+        <v>225010033080</v>
       </c>
       <c r="D498" s="3">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8895,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>57.39</v>
-      </c>
-      <c r="C499" s="2">
-        <v>12454388537</v>
+        <v>56.29</v>
+      </c>
+      <c r="C499" s="3">
+        <v>12080877410</v>
       </c>
       <c r="D499" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8909,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>23.89</v>
-      </c>
-      <c r="C500" s="2">
-        <v>4808604369</v>
+        <v>24.76</v>
+      </c>
+      <c r="C500" s="3">
+        <v>4867877620</v>
       </c>
       <c r="D500" s="3">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,10 +8923,10 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>99.73999999999999</v>
-      </c>
-      <c r="C501" s="2">
-        <v>18167757734</v>
+        <v>102.61</v>
+      </c>
+      <c r="C501" s="3">
+        <v>18460300738</v>
       </c>
       <c r="D501" s="3">
         <v>19</v>
@@ -8937,10 +8937,10 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>105.8</v>
-      </c>
-      <c r="C502" s="2">
-        <v>33003303374</v>
+        <v>107</v>
+      </c>
+      <c r="C502" s="3">
+        <v>32871518386</v>
       </c>
       <c r="D502" s="3">
         <v>18</v>
@@ -8951,13 +8951,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>167.08</v>
-      </c>
-      <c r="C503" s="2">
-        <v>35045851878</v>
+        <v>164.17</v>
+      </c>
+      <c r="C503" s="3">
+        <v>34424696305</v>
       </c>
       <c r="D503" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,13 +8965,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>487.11</v>
-      </c>
-      <c r="C504" s="2">
-        <v>26518621222</v>
+        <v>503.1</v>
+      </c>
+      <c r="C504" s="3">
+        <v>26787087699</v>
       </c>
       <c r="D504" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8979,13 +8979,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>50.29</v>
-      </c>
-      <c r="C505" s="2">
-        <v>8152389602</v>
+        <v>52.45</v>
+      </c>
+      <c r="C505" s="3">
+        <v>8613420261</v>
       </c>
       <c r="D505" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,10 +8993,10 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>170.18</v>
-      </c>
-      <c r="C506" s="2">
-        <v>81862195051</v>
+        <v>171.54</v>
+      </c>
+      <c r="C506" s="3">
+        <v>79366533867</v>
       </c>
       <c r="D506" s="3">
         <v>11</v>
